--- a/JupyterNotebooks/AvgHW/Gamma1F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9906690605376728</v>
+      </c>
+      <c r="D3">
         <v>1.003183057193528</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.9906690605376728</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.001866288186518</v>
       </c>
-      <c r="F3">
-        <v>1.003183057193528</v>
-      </c>
       <c r="G3">
-        <v>1.004756587925598</v>
+        <v>1.00225018730995</v>
       </c>
       <c r="H3">
         <v>0.9951555719438107</v>
       </c>
       <c r="I3">
-        <v>1.00225018730995</v>
+        <v>1.004756587925598</v>
       </c>
       <c r="J3">
-        <v>0.9906690605376728</v>
+        <v>1.003183057193528</v>
       </c>
       <c r="K3">
         <v>1.003183057193528</v>
@@ -728,7 +680,7 @@
         <v>0.9996467921828464</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9819705528289223</v>
+      </c>
+      <c r="D4">
         <v>1.006170569503168</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.9819705528289223</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.003594773525874</v>
       </c>
-      <c r="F4">
-        <v>1.006170569503168</v>
-      </c>
       <c r="G4">
-        <v>1.009154166336192</v>
+        <v>1.004345737344496</v>
       </c>
       <c r="H4">
         <v>0.9906470399478813</v>
       </c>
       <c r="I4">
-        <v>1.004345737344496</v>
+        <v>1.009154166336192</v>
       </c>
       <c r="J4">
-        <v>0.9819705528289223</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="K4">
         <v>1.006170569503168</v>
@@ -790,7 +742,7 @@
         <v>0.9993138065810889</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9655954804874959</v>
+      </c>
+      <c r="D5">
         <v>1.011589738742236</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.9655954804874959</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.006963084143019</v>
       </c>
-      <c r="F5">
-        <v>1.011589738742236</v>
-      </c>
       <c r="G5">
-        <v>1.017801603599642</v>
+        <v>1.008311959799307</v>
       </c>
       <c r="H5">
         <v>0.9820840710777922</v>
       </c>
       <c r="I5">
-        <v>1.008311959799307</v>
+        <v>1.017801603599642</v>
       </c>
       <c r="J5">
-        <v>0.9655954804874959</v>
+        <v>1.011589738742236</v>
       </c>
       <c r="K5">
         <v>1.011589738742236</v>
@@ -852,7 +804,7 @@
         <v>0.9987243229749154</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9496066082813085</v>
+      </c>
+      <c r="D6">
         <v>1.016883692971348</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.9496066082813085</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.010249504173778</v>
       </c>
-      <c r="F6">
-        <v>1.016883692971348</v>
-      </c>
       <c r="G6">
-        <v>1.026232421554377</v>
+        <v>1.012183675446926</v>
       </c>
       <c r="H6">
         <v>0.9737271274604016</v>
       </c>
       <c r="I6">
-        <v>1.012183675446926</v>
+        <v>1.026232421554377</v>
       </c>
       <c r="J6">
-        <v>0.9496066082813085</v>
+        <v>1.016883692971348</v>
       </c>
       <c r="K6">
         <v>1.016883692971348</v>
@@ -914,7 +866,7 @@
         <v>0.9981471716480229</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9994241650851071</v>
+      </c>
+      <c r="D7">
         <v>1.000082968936213</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.9994241650851071</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.000178445226206</v>
       </c>
-      <c r="F7">
-        <v>1.000082968936213</v>
-      </c>
       <c r="G7">
-        <v>1.000497148795451</v>
+        <v>1.000150610788003</v>
       </c>
       <c r="H7">
         <v>0.9996594531022619</v>
       </c>
       <c r="I7">
-        <v>1.000150610788003</v>
+        <v>1.000497148795451</v>
       </c>
       <c r="J7">
-        <v>0.9994241650851071</v>
+        <v>1.000082968936213</v>
       </c>
       <c r="K7">
         <v>1.000082968936213</v>
@@ -961,7 +913,7 @@
         <v>0.9997540211378583</v>
       </c>
       <c r="P7">
-        <v>0.9998951930825086</v>
+        <v>0.9998951930825085</v>
       </c>
       <c r="Q7">
         <v>0.9998951930825085</v>
@@ -976,7 +928,7 @@
         <v>0.9999987986555402</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9985136898300557</v>
+      </c>
+      <c r="D8">
         <v>1.000242508587172</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.9985136898300557</v>
       </c>
-      <c r="E8">
-        <v>1.000444931837518</v>
-      </c>
       <c r="F8">
+        <v>1.000444931837519</v>
+      </c>
+      <c r="G8">
+        <v>1.000385917631176</v>
+      </c>
+      <c r="H8">
+        <v>0.9991309297087024</v>
+      </c>
+      <c r="I8">
+        <v>1.001233529834948</v>
+      </c>
+      <c r="J8">
         <v>1.000242508587172</v>
-      </c>
-      <c r="G8">
-        <v>1.001233529834948</v>
-      </c>
-      <c r="H8">
-        <v>0.9991309297087027</v>
-      </c>
-      <c r="I8">
-        <v>1.000385917631176</v>
-      </c>
-      <c r="J8">
-        <v>0.9985136898300557</v>
       </c>
       <c r="K8">
         <v>1.000242508587172</v>
       </c>
       <c r="L8">
-        <v>1.000444931837518</v>
+        <v>1.000444931837519</v>
       </c>
       <c r="M8">
-        <v>0.999479310833787</v>
+        <v>0.9994793108337872</v>
       </c>
       <c r="N8">
-        <v>0.999479310833787</v>
+        <v>0.9994793108337872</v>
       </c>
       <c r="O8">
         <v>0.9993631837920923</v>
       </c>
       <c r="P8">
-        <v>0.9997337100849154</v>
+        <v>0.9997337100849156</v>
       </c>
       <c r="Q8">
-        <v>0.9997337100849154</v>
+        <v>0.9997337100849156</v>
       </c>
       <c r="R8">
-        <v>0.9998609097104796</v>
+        <v>0.9998609097104798</v>
       </c>
       <c r="S8">
-        <v>0.9998609097104796</v>
+        <v>0.9998609097104798</v>
       </c>
       <c r="T8">
         <v>0.9999919179049289</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9978747653854858</v>
+      </c>
+      <c r="D9">
         <v>1.000411403629503</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.9978747653854858</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.000600239523574</v>
       </c>
-      <c r="F9">
-        <v>1.000411403629503</v>
-      </c>
       <c r="G9">
-        <v>1.001648531888689</v>
+        <v>1.000545186529268</v>
       </c>
       <c r="H9">
         <v>0.9987807427830051</v>
       </c>
       <c r="I9">
-        <v>1.000545186529268</v>
+        <v>1.001648531888689</v>
       </c>
       <c r="J9">
-        <v>0.9978747653854858</v>
+        <v>1.000411403629503</v>
       </c>
       <c r="K9">
         <v>1.000411403629503</v>
@@ -1100,7 +1052,7 @@
         <v>0.999976811623254</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9954754003431316</v>
+      </c>
+      <c r="D10">
         <v>1.000794806432039</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9954754003431316</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.001323258051913</v>
       </c>
-      <c r="F10">
-        <v>1.000794806432039</v>
-      </c>
       <c r="G10">
-        <v>1.003656361680993</v>
+        <v>1.001169191779771</v>
       </c>
       <c r="H10">
         <v>0.9973740454361889</v>
       </c>
       <c r="I10">
-        <v>1.001169191779771</v>
+        <v>1.003656361680993</v>
       </c>
       <c r="J10">
-        <v>0.9954754003431316</v>
+        <v>1.000794806432039</v>
       </c>
       <c r="K10">
         <v>1.000794806432039</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999655106206727</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9923851295057338</v>
+      </c>
+      <c r="D11">
         <v>1.001500094260128</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.9923851295057338</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.002137153922169</v>
       </c>
-      <c r="F11">
-        <v>1.001500094260128</v>
-      </c>
       <c r="G11">
-        <v>1.005867759328048</v>
+        <v>1.001951425784338</v>
       </c>
       <c r="H11">
         <v>0.9956378902776553</v>
       </c>
       <c r="I11">
-        <v>1.001951425784338</v>
+        <v>1.005867759328048</v>
       </c>
       <c r="J11">
-        <v>0.9923851295057338</v>
+        <v>1.001500094260128</v>
       </c>
       <c r="K11">
         <v>1.001500094260128</v>
@@ -1200,31 +1152,31 @@
         <v>1.002137153922169</v>
       </c>
       <c r="M11">
-        <v>0.9972611417139514</v>
+        <v>0.9972611417139513</v>
       </c>
       <c r="N11">
-        <v>0.9972611417139514</v>
+        <v>0.9972611417139513</v>
       </c>
       <c r="O11">
         <v>0.9967200579018526</v>
       </c>
       <c r="P11">
-        <v>0.9986741258960102</v>
+        <v>0.99867412589601</v>
       </c>
       <c r="Q11">
-        <v>0.9986741258960102</v>
+        <v>0.99867412589601</v>
       </c>
       <c r="R11">
-        <v>0.9993806179870396</v>
+        <v>0.9993806179870395</v>
       </c>
       <c r="S11">
-        <v>0.9993806179870396</v>
+        <v>0.9993806179870395</v>
       </c>
       <c r="T11">
         <v>0.9999132421796785</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.059173030296684</v>
+      </c>
+      <c r="D12">
         <v>1.000686663871969</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.059173030296684</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.9765893042771374</v>
       </c>
-      <c r="F12">
-        <v>1.000686663871969</v>
-      </c>
       <c r="G12">
-        <v>0.9328916008252881</v>
+        <v>0.9836147814619969</v>
       </c>
       <c r="H12">
         <v>1.038172310394908</v>
       </c>
       <c r="I12">
-        <v>0.9836147814619971</v>
+        <v>0.9328916008252881</v>
       </c>
       <c r="J12">
-        <v>1.059173030296684</v>
+        <v>1.000686663871969</v>
       </c>
       <c r="K12">
         <v>1.000686663871969</v>
@@ -1286,7 +1238,7 @@
         <v>0.9985212818546639</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.023103666218639</v>
+      </c>
+      <c r="D13">
         <v>0.9876535683794688</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.023103666218639</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.9978964642106938</v>
       </c>
-      <c r="F13">
-        <v>0.9876535683794688</v>
-      </c>
       <c r="G13">
-        <v>0.9964552164516571</v>
+        <v>0.9949101964589003</v>
       </c>
       <c r="H13">
         <v>1.01027290884233</v>
       </c>
       <c r="I13">
-        <v>0.9949101964589003</v>
+        <v>0.996455216451657</v>
       </c>
       <c r="J13">
-        <v>1.023103666218639</v>
+        <v>0.9876535683794688</v>
       </c>
       <c r="K13">
         <v>0.9876535683794688</v>
@@ -1348,7 +1300,7 @@
         <v>1.001715336760282</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9998628949171428</v>
+        <v>1.060026633002089</v>
       </c>
       <c r="D14">
+        <v>0.9998628949171429</v>
+      </c>
+      <c r="E14">
         <v>1.060026633002089</v>
       </c>
-      <c r="E14">
-        <v>0.9767934461358043</v>
-      </c>
       <c r="F14">
-        <v>0.9998628949171428</v>
+        <v>0.9767934461358041</v>
       </c>
       <c r="G14">
-        <v>0.9340352275256499</v>
+        <v>0.9835192342156879</v>
       </c>
       <c r="H14">
         <v>1.038178046160238</v>
       </c>
       <c r="I14">
-        <v>0.9835192342156879</v>
+        <v>0.9340352275256499</v>
       </c>
       <c r="J14">
-        <v>1.060026633002089</v>
+        <v>0.9998628949171429</v>
       </c>
       <c r="K14">
-        <v>0.9998628949171428</v>
+        <v>0.9998628949171429</v>
       </c>
       <c r="L14">
-        <v>0.9767934461358043</v>
+        <v>0.9767934461358041</v>
       </c>
       <c r="M14">
         <v>1.018410039568947</v>
@@ -1398,7 +1350,7 @@
         <v>1.012227658018345</v>
       </c>
       <c r="Q14">
-        <v>1.012227658018346</v>
+        <v>1.012227658018345</v>
       </c>
       <c r="R14">
         <v>1.009136467243045</v>
@@ -1407,10 +1359,10 @@
         <v>1.009136467243045</v>
       </c>
       <c r="T14">
-        <v>0.9987359136594353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9987359136594351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.022535188399311</v>
+      </c>
+      <c r="D15">
         <v>0.9878789340584816</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.022535188399311</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.9978965161556439</v>
       </c>
-      <c r="F15">
-        <v>0.9878789340584816</v>
-      </c>
       <c r="G15">
-        <v>0.9959196290067973</v>
+        <v>0.9949759350777625</v>
       </c>
       <c r="H15">
         <v>1.010288264478402</v>
       </c>
       <c r="I15">
-        <v>0.9949759350777625</v>
+        <v>0.9959196290067973</v>
       </c>
       <c r="J15">
-        <v>1.022535188399311</v>
+        <v>0.9878789340584816</v>
       </c>
       <c r="K15">
         <v>0.9878789340584816</v>
@@ -1472,7 +1424,7 @@
         <v>1.001582411196067</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997290296049722</v>
+        <v>0.8195029810035829</v>
       </c>
       <c r="D16">
-        <v>1.000122755157503</v>
+        <v>1.059555595735412</v>
       </c>
       <c r="E16">
-        <v>1.000099794498219</v>
+        <v>0.8195029810035829</v>
       </c>
       <c r="F16">
-        <v>0.9997290296049722</v>
+        <v>1.037210968181851</v>
       </c>
       <c r="G16">
-        <v>1.000321285190408</v>
+        <v>1.043725442765226</v>
       </c>
       <c r="H16">
-        <v>0.999990360326679</v>
+        <v>0.9055980348755535</v>
       </c>
       <c r="I16">
-        <v>0.9999917010165257</v>
+        <v>1.095508664664308</v>
       </c>
       <c r="J16">
-        <v>1.000122755157503</v>
+        <v>1.059555595735412</v>
       </c>
       <c r="K16">
-        <v>0.9997290296049722</v>
+        <v>1.059555595735412</v>
       </c>
       <c r="L16">
-        <v>1.000099794498219</v>
+        <v>1.037210968181851</v>
       </c>
       <c r="M16">
-        <v>1.000111274827861</v>
+        <v>0.9283569745927167</v>
       </c>
       <c r="N16">
-        <v>1.000111274827861</v>
+        <v>0.9283569745927167</v>
       </c>
       <c r="O16">
-        <v>1.000070969994134</v>
+        <v>0.9207706613536623</v>
       </c>
       <c r="P16">
-        <v>0.999983859753565</v>
+        <v>0.9720898483069483</v>
       </c>
       <c r="Q16">
-        <v>0.999983859753565</v>
+        <v>0.9720898483069486</v>
       </c>
       <c r="R16">
-        <v>0.9999201522164167</v>
+        <v>0.9939562851640644</v>
       </c>
       <c r="S16">
-        <v>0.9999201522164167</v>
+        <v>0.9939562851640644</v>
       </c>
       <c r="T16">
-        <v>1.000042487632385</v>
+        <v>0.9935169478709888</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000462004651245</v>
+        <v>0.8554457623134352</v>
       </c>
       <c r="D17">
-        <v>0.9990886980631009</v>
+        <v>1.043597404918909</v>
       </c>
       <c r="E17">
-        <v>1.00010220589827</v>
+        <v>0.8554457623134352</v>
       </c>
       <c r="F17">
-        <v>1.000462004651245</v>
+        <v>1.032076526328221</v>
       </c>
       <c r="G17">
-        <v>1.000227061334568</v>
+        <v>1.035435387618545</v>
       </c>
       <c r="H17">
-        <v>0.9995691493043938</v>
+        <v>0.9229260049463077</v>
       </c>
       <c r="I17">
-        <v>1.000207104688599</v>
+        <v>1.083763504905044</v>
       </c>
       <c r="J17">
-        <v>0.9990886980631009</v>
+        <v>1.043597404918909</v>
       </c>
       <c r="K17">
-        <v>1.000462004651245</v>
+        <v>1.043597404918909</v>
       </c>
       <c r="L17">
-        <v>1.00010220589827</v>
+        <v>1.032076526328221</v>
       </c>
       <c r="M17">
-        <v>0.9995954519806854</v>
+        <v>0.9437611443208282</v>
       </c>
       <c r="N17">
-        <v>0.9995954519806854</v>
+        <v>0.9437611443208282</v>
       </c>
       <c r="O17">
-        <v>0.9995866844219216</v>
+        <v>0.9368160978626547</v>
       </c>
       <c r="P17">
-        <v>0.9998843028708722</v>
+        <v>0.9770398978535217</v>
       </c>
       <c r="Q17">
-        <v>0.9998843028708722</v>
+        <v>0.9770398978535219</v>
       </c>
       <c r="R17">
-        <v>1.000028728315965</v>
+        <v>0.9936792746198686</v>
       </c>
       <c r="S17">
-        <v>1.000028728315965</v>
+        <v>0.9936792746198686</v>
       </c>
       <c r="T17">
-        <v>0.9999427039900296</v>
+        <v>0.9955407651717437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000304568767843</v>
+        <v>0.9275435043994298</v>
       </c>
       <c r="D18">
-        <v>0.9975026110899378</v>
+        <v>1.011796595911902</v>
       </c>
       <c r="E18">
-        <v>1.000794857743396</v>
+        <v>0.9275435043994298</v>
       </c>
       <c r="F18">
-        <v>1.000304568767843</v>
+        <v>1.021660987820049</v>
       </c>
       <c r="G18">
-        <v>1.002176290464938</v>
+        <v>1.018785073038323</v>
       </c>
       <c r="H18">
-        <v>0.998533522933563</v>
+        <v>0.9577591345889976</v>
       </c>
       <c r="I18">
-        <v>1.000651918311122</v>
+        <v>1.059832507163285</v>
       </c>
       <c r="J18">
-        <v>0.9975026110899378</v>
+        <v>1.011796595911902</v>
       </c>
       <c r="K18">
-        <v>1.000304568767843</v>
+        <v>1.011796595911902</v>
       </c>
       <c r="L18">
-        <v>1.000794857743396</v>
+        <v>1.021660987820049</v>
       </c>
       <c r="M18">
-        <v>0.9991487344166672</v>
+        <v>0.9746022461097396</v>
       </c>
       <c r="N18">
-        <v>0.9991487344166672</v>
+        <v>0.9746022461097396</v>
       </c>
       <c r="O18">
-        <v>0.9989436639222991</v>
+        <v>0.9689878756028256</v>
       </c>
       <c r="P18">
-        <v>0.9995340125337259</v>
+        <v>0.9870003627104603</v>
       </c>
       <c r="Q18">
-        <v>0.9995340125337258</v>
+        <v>0.9870003627104603</v>
       </c>
       <c r="R18">
-        <v>0.9997266515922552</v>
+        <v>0.9931994210108206</v>
       </c>
       <c r="S18">
-        <v>0.9997266515922552</v>
+        <v>0.9931994210108206</v>
       </c>
       <c r="T18">
-        <v>0.9999939615518002</v>
+        <v>0.9995629671536644</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9225275604931662</v>
+      </c>
+      <c r="D19">
+        <v>1.010409619997461</v>
+      </c>
+      <c r="E19">
+        <v>0.9225275604931662</v>
+      </c>
+      <c r="F19">
+        <v>1.024408730924213</v>
+      </c>
+      <c r="G19">
+        <v>1.020327357674441</v>
+      </c>
+      <c r="H19">
+        <v>0.9539670268818986</v>
+      </c>
+      <c r="I19">
+        <v>1.068083939840421</v>
+      </c>
+      <c r="J19">
+        <v>1.010409619997461</v>
+      </c>
+      <c r="K19">
+        <v>1.010409619997461</v>
+      </c>
+      <c r="L19">
+        <v>1.024408730924213</v>
+      </c>
+      <c r="M19">
+        <v>0.9734681457086898</v>
+      </c>
+      <c r="N19">
+        <v>0.9734681457086898</v>
+      </c>
+      <c r="O19">
+        <v>0.966967772766426</v>
+      </c>
+      <c r="P19">
+        <v>0.9857819704716135</v>
+      </c>
+      <c r="Q19">
+        <v>0.9857819704716135</v>
+      </c>
+      <c r="R19">
+        <v>0.9919388828530754</v>
+      </c>
+      <c r="S19">
+        <v>0.9919388828530754</v>
+      </c>
+      <c r="T19">
+        <v>0.9999540393019336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000122755157503</v>
+      </c>
+      <c r="D20">
+        <v>0.9997290296049722</v>
+      </c>
+      <c r="E20">
+        <v>1.000122755157503</v>
+      </c>
+      <c r="F20">
+        <v>1.000099794498219</v>
+      </c>
+      <c r="G20">
+        <v>0.9999917010165257</v>
+      </c>
+      <c r="H20">
+        <v>0.9999903603266789</v>
+      </c>
+      <c r="I20">
+        <v>1.000321285190408</v>
+      </c>
+      <c r="J20">
+        <v>0.9997290296049722</v>
+      </c>
+      <c r="K20">
+        <v>0.9997290296049722</v>
+      </c>
+      <c r="L20">
+        <v>1.000099794498219</v>
+      </c>
+      <c r="M20">
+        <v>1.000111274827861</v>
+      </c>
+      <c r="N20">
+        <v>1.000111274827861</v>
+      </c>
+      <c r="O20">
+        <v>1.000070969994134</v>
+      </c>
+      <c r="P20">
+        <v>0.999983859753565</v>
+      </c>
+      <c r="Q20">
+        <v>0.999983859753565</v>
+      </c>
+      <c r="R20">
+        <v>0.9999201522164167</v>
+      </c>
+      <c r="S20">
+        <v>0.9999201522164167</v>
+      </c>
+      <c r="T20">
+        <v>1.000042487632385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9990886980631006</v>
+      </c>
+      <c r="D21">
+        <v>1.000462004651245</v>
+      </c>
+      <c r="E21">
+        <v>0.9990886980631006</v>
+      </c>
+      <c r="F21">
+        <v>1.00010220589827</v>
+      </c>
+      <c r="G21">
+        <v>1.000207104688598</v>
+      </c>
+      <c r="H21">
+        <v>0.9995691493043939</v>
+      </c>
+      <c r="I21">
+        <v>1.000227061334568</v>
+      </c>
+      <c r="J21">
+        <v>1.000462004651245</v>
+      </c>
+      <c r="K21">
+        <v>1.000462004651245</v>
+      </c>
+      <c r="L21">
+        <v>1.00010220589827</v>
+      </c>
+      <c r="M21">
+        <v>0.9995954519806853</v>
+      </c>
+      <c r="N21">
+        <v>0.9995954519806853</v>
+      </c>
+      <c r="O21">
+        <v>0.9995866844219216</v>
+      </c>
+      <c r="P21">
+        <v>0.999884302870872</v>
+      </c>
+      <c r="Q21">
+        <v>0.999884302870872</v>
+      </c>
+      <c r="R21">
+        <v>1.000028728315965</v>
+      </c>
+      <c r="S21">
+        <v>1.000028728315965</v>
+      </c>
+      <c r="T21">
+        <v>0.9999427039900294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9975026110899378</v>
+      </c>
+      <c r="D22">
+        <v>1.000304568767843</v>
+      </c>
+      <c r="E22">
+        <v>0.9975026110899378</v>
+      </c>
+      <c r="F22">
+        <v>1.000794857743396</v>
+      </c>
+      <c r="G22">
+        <v>1.000651918311122</v>
+      </c>
+      <c r="H22">
+        <v>0.998533522933563</v>
+      </c>
+      <c r="I22">
+        <v>1.002176290464938</v>
+      </c>
+      <c r="J22">
+        <v>1.000304568767843</v>
+      </c>
+      <c r="K22">
+        <v>1.000304568767843</v>
+      </c>
+      <c r="L22">
+        <v>1.000794857743396</v>
+      </c>
+      <c r="M22">
+        <v>0.9991487344166672</v>
+      </c>
+      <c r="N22">
+        <v>0.9991487344166672</v>
+      </c>
+      <c r="O22">
+        <v>0.9989436639222991</v>
+      </c>
+      <c r="P22">
+        <v>0.9995340125337259</v>
+      </c>
+      <c r="Q22">
+        <v>0.9995340125337258</v>
+      </c>
+      <c r="R22">
+        <v>0.9997266515922552</v>
+      </c>
+      <c r="S22">
+        <v>0.9997266515922552</v>
+      </c>
+      <c r="T22">
+        <v>0.9999939615518002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9944876538330214</v>
+      </c>
+      <c r="D23">
         <v>1.000039631639551</v>
       </c>
-      <c r="D19">
-        <v>0.9944876538330215</v>
-      </c>
-      <c r="E19">
+      <c r="E23">
+        <v>0.9944876538330214</v>
+      </c>
+      <c r="F23">
         <v>1.002087864800882</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.001490713652553</v>
+      </c>
+      <c r="H23">
+        <v>0.9965915204909385</v>
+      </c>
+      <c r="I23">
+        <v>1.005783905503983</v>
+      </c>
+      <c r="J23">
         <v>1.000039631639551</v>
       </c>
-      <c r="G19">
-        <v>1.005783905503983</v>
-      </c>
-      <c r="H19">
-        <v>0.9965915204909385</v>
-      </c>
-      <c r="I19">
-        <v>1.001490713652553</v>
-      </c>
-      <c r="J19">
-        <v>0.9944876538330215</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000039631639551</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.002087864800882</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9982877593169519</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9982877593169519</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9977223463749474</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9988717167578184</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9988717167578184</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9991636954782517</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9991636954782517</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000080214986822</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9906690605376728</v>
+        <v>0.9139801389049</v>
       </c>
       <c r="D3">
-        <v>1.003183057193528</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="E3">
-        <v>0.9906690605376728</v>
+        <v>0.9139801389049</v>
       </c>
       <c r="F3">
-        <v>1.001866288186518</v>
+        <v>1.025542767168586</v>
       </c>
       <c r="G3">
-        <v>1.00225018730995</v>
+        <v>1.022270910518734</v>
       </c>
       <c r="H3">
-        <v>0.9951555719438107</v>
+        <v>0.9499585332708916</v>
       </c>
       <c r="I3">
-        <v>1.004756587925598</v>
+        <v>1.070489854668589</v>
       </c>
       <c r="J3">
-        <v>1.003183057193528</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="K3">
-        <v>1.003183057193528</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="L3">
-        <v>1.001866288186518</v>
+        <v>1.025542767168586</v>
       </c>
       <c r="M3">
-        <v>0.9962676743620955</v>
+        <v>0.9697614530367428</v>
       </c>
       <c r="N3">
-        <v>0.9962676743620955</v>
+        <v>0.9697614530367428</v>
       </c>
       <c r="O3">
-        <v>0.9958969735560005</v>
+        <v>0.9631604797814591</v>
       </c>
       <c r="P3">
-        <v>0.998572801972573</v>
+        <v>0.9846143980787682</v>
       </c>
       <c r="Q3">
-        <v>0.998572801972573</v>
+        <v>0.9846143980787682</v>
       </c>
       <c r="R3">
-        <v>0.9997253657778118</v>
+        <v>0.9920408705997809</v>
       </c>
       <c r="S3">
-        <v>0.9997253657778118</v>
+        <v>0.9920408705997809</v>
       </c>
       <c r="T3">
-        <v>0.9996467921828464</v>
+        <v>0.9994270821157532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9819705528289223</v>
+        <v>0.9214674761852446</v>
       </c>
       <c r="D4">
-        <v>1.006170569503168</v>
+        <v>1.012798792003354</v>
       </c>
       <c r="E4">
-        <v>0.9819705528289223</v>
+        <v>0.9214674761852446</v>
       </c>
       <c r="F4">
-        <v>1.003594773525874</v>
+        <v>1.023470492903469</v>
       </c>
       <c r="G4">
-        <v>1.004345737344496</v>
+        <v>1.020359212254937</v>
       </c>
       <c r="H4">
-        <v>0.9906470399478813</v>
+        <v>0.9542207555283345</v>
       </c>
       <c r="I4">
-        <v>1.009154166336192</v>
+        <v>1.064829008988073</v>
       </c>
       <c r="J4">
-        <v>1.006170569503168</v>
+        <v>1.012798792003354</v>
       </c>
       <c r="K4">
-        <v>1.006170569503168</v>
+        <v>1.012798792003354</v>
       </c>
       <c r="L4">
-        <v>1.003594773525874</v>
+        <v>1.023470492903469</v>
       </c>
       <c r="M4">
-        <v>0.9927826631773982</v>
+        <v>0.9724689845443568</v>
       </c>
       <c r="N4">
-        <v>0.9927826631773982</v>
+        <v>0.9724689845443568</v>
       </c>
       <c r="O4">
-        <v>0.9920707887675592</v>
+        <v>0.966386241539016</v>
       </c>
       <c r="P4">
-        <v>0.9972452986193213</v>
+        <v>0.985912253697356</v>
       </c>
       <c r="Q4">
-        <v>0.9972452986193213</v>
+        <v>0.985912253697356</v>
       </c>
       <c r="R4">
-        <v>0.999476616340283</v>
+        <v>0.9926338882738557</v>
       </c>
       <c r="S4">
-        <v>0.999476616340283</v>
+        <v>0.9926338882738557</v>
       </c>
       <c r="T4">
-        <v>0.9993138065810889</v>
+        <v>0.9995242896439022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9655954804874959</v>
+        <v>0.8997547840431255</v>
       </c>
       <c r="D5">
-        <v>1.011589738742236</v>
+        <v>1.017189893342319</v>
       </c>
       <c r="E5">
-        <v>0.9655954804874959</v>
+        <v>0.8997547840431255</v>
       </c>
       <c r="F5">
-        <v>1.006963084143019</v>
+        <v>1.029492176010782</v>
       </c>
       <c r="G5">
-        <v>1.008311959799307</v>
+        <v>1.025905511320754</v>
       </c>
       <c r="H5">
-        <v>0.9820840710777922</v>
+        <v>0.9418514230997298</v>
       </c>
       <c r="I5">
-        <v>1.017801603599642</v>
+        <v>1.081286719865229</v>
       </c>
       <c r="J5">
-        <v>1.011589738742236</v>
+        <v>1.017189893342319</v>
       </c>
       <c r="K5">
-        <v>1.011589738742236</v>
+        <v>1.017189893342319</v>
       </c>
       <c r="L5">
-        <v>1.006963084143019</v>
+        <v>1.029492176010782</v>
       </c>
       <c r="M5">
-        <v>0.9862792823152577</v>
+        <v>0.9646234800269535</v>
       </c>
       <c r="N5">
-        <v>0.9862792823152577</v>
+        <v>0.9646234800269535</v>
       </c>
       <c r="O5">
-        <v>0.9848808785694358</v>
+        <v>0.9570327943845456</v>
       </c>
       <c r="P5">
-        <v>0.9947161011242504</v>
+        <v>0.982145617798742</v>
       </c>
       <c r="Q5">
-        <v>0.9947161011242504</v>
+        <v>0.982145617798742</v>
       </c>
       <c r="R5">
-        <v>0.9989345105287467</v>
+        <v>0.9909066866846362</v>
       </c>
       <c r="S5">
-        <v>0.9989345105287467</v>
+        <v>0.9909066866846362</v>
       </c>
       <c r="T5">
-        <v>0.9987243229749154</v>
+        <v>0.999246751280323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9496066082813085</v>
+        <v>0.886465380511363</v>
       </c>
       <c r="D6">
-        <v>1.016883692971348</v>
+        <v>1.019845604147728</v>
       </c>
       <c r="E6">
-        <v>0.9496066082813085</v>
+        <v>0.886465380511363</v>
       </c>
       <c r="F6">
-        <v>1.010249504173778</v>
+        <v>1.033196296704545</v>
       </c>
       <c r="G6">
-        <v>1.012183675446926</v>
+        <v>1.029303977784091</v>
       </c>
       <c r="H6">
-        <v>0.9737271274604016</v>
+        <v>0.9342667534090904</v>
       </c>
       <c r="I6">
-        <v>1.026232421554377</v>
+        <v>1.091422790454546</v>
       </c>
       <c r="J6">
-        <v>1.016883692971348</v>
+        <v>1.019845604147728</v>
       </c>
       <c r="K6">
-        <v>1.016883692971348</v>
+        <v>1.019845604147728</v>
       </c>
       <c r="L6">
-        <v>1.010249504173778</v>
+        <v>1.033196296704545</v>
       </c>
       <c r="M6">
-        <v>0.979928056227543</v>
+        <v>0.9598308386079542</v>
       </c>
       <c r="N6">
-        <v>0.979928056227543</v>
+        <v>0.9598308386079542</v>
       </c>
       <c r="O6">
-        <v>0.9778610799718291</v>
+        <v>0.9513094768749996</v>
       </c>
       <c r="P6">
-        <v>0.9922466018088114</v>
+        <v>0.9798357604545455</v>
       </c>
       <c r="Q6">
-        <v>0.9922466018088114</v>
+        <v>0.9798357604545452</v>
       </c>
       <c r="R6">
-        <v>0.9984058745994456</v>
+        <v>0.9898382213778409</v>
       </c>
       <c r="S6">
-        <v>0.9984058745994456</v>
+        <v>0.9898382213778409</v>
       </c>
       <c r="T6">
-        <v>0.9981471716480229</v>
+        <v>0.9990834671685604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994241650851071</v>
+        <v>0.9410778683412048</v>
       </c>
       <c r="D7">
-        <v>1.000082968936213</v>
+        <v>1.024323232433612</v>
       </c>
       <c r="E7">
-        <v>0.9994241650851071</v>
+        <v>0.9410778683412048</v>
       </c>
       <c r="F7">
-        <v>1.000178445226206</v>
+        <v>1.009198928871493</v>
       </c>
       <c r="G7">
-        <v>1.000150610788003</v>
+        <v>1.013608341581184</v>
       </c>
       <c r="H7">
-        <v>0.9996594531022619</v>
+        <v>0.9716755121600316</v>
       </c>
       <c r="I7">
-        <v>1.000497148795451</v>
+        <v>1.020609135920385</v>
       </c>
       <c r="J7">
-        <v>1.000082968936213</v>
+        <v>1.024323232433612</v>
       </c>
       <c r="K7">
-        <v>1.000082968936213</v>
+        <v>1.024323232433612</v>
       </c>
       <c r="L7">
-        <v>1.000178445226206</v>
+        <v>1.009198928871493</v>
       </c>
       <c r="M7">
-        <v>0.9998013051556565</v>
+        <v>0.9751383986063491</v>
       </c>
       <c r="N7">
-        <v>0.9998013051556565</v>
+        <v>0.9751383986063491</v>
       </c>
       <c r="O7">
-        <v>0.9997540211378583</v>
+        <v>0.9739841031242432</v>
       </c>
       <c r="P7">
-        <v>0.9998951930825085</v>
+        <v>0.9915333432154366</v>
       </c>
       <c r="Q7">
-        <v>0.9998951930825085</v>
+        <v>0.9915333432154366</v>
       </c>
       <c r="R7">
-        <v>0.9999421370459345</v>
+        <v>0.9997308155199804</v>
       </c>
       <c r="S7">
-        <v>0.9999421370459345</v>
+        <v>0.9997308155199804</v>
       </c>
       <c r="T7">
-        <v>0.9999987986555402</v>
+        <v>0.9967488365513185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9985136898300557</v>
+        <v>0.9392084920655477</v>
       </c>
       <c r="D8">
-        <v>1.000242508587172</v>
+        <v>1.024619394198223</v>
       </c>
       <c r="E8">
-        <v>0.9985136898300557</v>
+        <v>0.9392084920655477</v>
       </c>
       <c r="F8">
-        <v>1.000444931837519</v>
+        <v>1.009765813781591</v>
       </c>
       <c r="G8">
-        <v>1.000385917631176</v>
+        <v>1.014096298488609</v>
       </c>
       <c r="H8">
-        <v>0.9991309297087024</v>
+        <v>0.9705719205529828</v>
       </c>
       <c r="I8">
-        <v>1.001233529834948</v>
+        <v>1.022195227994156</v>
       </c>
       <c r="J8">
-        <v>1.000242508587172</v>
+        <v>1.024619394198223</v>
       </c>
       <c r="K8">
-        <v>1.000242508587172</v>
+        <v>1.024619394198223</v>
       </c>
       <c r="L8">
-        <v>1.000444931837519</v>
+        <v>1.009765813781591</v>
       </c>
       <c r="M8">
-        <v>0.9994793108337872</v>
+        <v>0.9744871529235692</v>
       </c>
       <c r="N8">
-        <v>0.9994793108337872</v>
+        <v>0.9744871529235692</v>
       </c>
       <c r="O8">
-        <v>0.9993631837920923</v>
+        <v>0.9731820754667071</v>
       </c>
       <c r="P8">
-        <v>0.9997337100849156</v>
+        <v>0.9911979000151204</v>
       </c>
       <c r="Q8">
-        <v>0.9997337100849156</v>
+        <v>0.9911979000151204</v>
       </c>
       <c r="R8">
-        <v>0.9998609097104798</v>
+        <v>0.9995532735608961</v>
       </c>
       <c r="S8">
-        <v>0.9998609097104798</v>
+        <v>0.9995532735608961</v>
       </c>
       <c r="T8">
-        <v>0.9999919179049289</v>
+        <v>0.9967428578468516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9978747653854858</v>
+        <v>0.9376901370014568</v>
       </c>
       <c r="D9">
-        <v>1.000411403629503</v>
+        <v>1.024739845757635</v>
       </c>
       <c r="E9">
-        <v>0.9978747653854858</v>
+        <v>0.9376901370014568</v>
       </c>
       <c r="F9">
-        <v>1.000600239523574</v>
+        <v>1.010292196725216</v>
       </c>
       <c r="G9">
-        <v>1.000545186529268</v>
+        <v>1.014504334278868</v>
       </c>
       <c r="H9">
-        <v>0.9987807427830051</v>
+        <v>0.9696347360883836</v>
       </c>
       <c r="I9">
-        <v>1.001648531888689</v>
+        <v>1.023690786395761</v>
       </c>
       <c r="J9">
-        <v>1.000411403629503</v>
+        <v>1.024739845757635</v>
       </c>
       <c r="K9">
-        <v>1.000411403629503</v>
+        <v>1.024739845757635</v>
       </c>
       <c r="L9">
-        <v>1.000600239523574</v>
+        <v>1.010292196725216</v>
       </c>
       <c r="M9">
-        <v>0.9992375024545297</v>
+        <v>0.9739911668633365</v>
       </c>
       <c r="N9">
-        <v>0.9992375024545297</v>
+        <v>0.9739911668633365</v>
       </c>
       <c r="O9">
-        <v>0.9990852492306882</v>
+        <v>0.9725390232716856</v>
       </c>
       <c r="P9">
-        <v>0.9996288028461873</v>
+        <v>0.9909073931614359</v>
       </c>
       <c r="Q9">
-        <v>0.9996288028461873</v>
+        <v>0.9909073931614359</v>
       </c>
       <c r="R9">
-        <v>0.9998244530420162</v>
+        <v>0.9993655063104857</v>
       </c>
       <c r="S9">
-        <v>0.9998244530420162</v>
+        <v>0.9993655063104857</v>
       </c>
       <c r="T9">
-        <v>0.999976811623254</v>
+        <v>0.9967586727078869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9954754003431316</v>
+        <v>0.9336650830876436</v>
       </c>
       <c r="D10">
-        <v>1.000794806432039</v>
+        <v>1.025787963979115</v>
       </c>
       <c r="E10">
-        <v>0.9954754003431316</v>
+        <v>0.9336650830876436</v>
       </c>
       <c r="F10">
-        <v>1.001323258051913</v>
+        <v>1.011289377438635</v>
       </c>
       <c r="G10">
-        <v>1.001169191779771</v>
+        <v>1.015516366138874</v>
       </c>
       <c r="H10">
-        <v>0.9973740454361889</v>
+        <v>0.9673919488326175</v>
       </c>
       <c r="I10">
-        <v>1.003656361680993</v>
+        <v>1.026413109726577</v>
       </c>
       <c r="J10">
-        <v>1.000794806432039</v>
+        <v>1.025787963979115</v>
       </c>
       <c r="K10">
-        <v>1.000794806432039</v>
+        <v>1.025787963979115</v>
       </c>
       <c r="L10">
-        <v>1.001323258051913</v>
+        <v>1.011289377438635</v>
       </c>
       <c r="M10">
-        <v>0.9983993291975223</v>
+        <v>0.9724772302631391</v>
       </c>
       <c r="N10">
-        <v>0.9983993291975223</v>
+        <v>0.9724772302631391</v>
       </c>
       <c r="O10">
-        <v>0.9980575679437446</v>
+        <v>0.9707821364529652</v>
       </c>
       <c r="P10">
-        <v>0.9991978216090279</v>
+        <v>0.990247474835131</v>
       </c>
       <c r="Q10">
-        <v>0.9991978216090279</v>
+        <v>0.990247474835131</v>
       </c>
       <c r="R10">
-        <v>0.9995970678147807</v>
+        <v>0.9991325971211269</v>
       </c>
       <c r="S10">
-        <v>0.9995970678147807</v>
+        <v>0.9991325971211269</v>
       </c>
       <c r="T10">
-        <v>0.9999655106206727</v>
+        <v>0.996677308200577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9923851295057338</v>
+        <v>0.9898021271116936</v>
       </c>
       <c r="D11">
-        <v>1.001500094260128</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="E11">
-        <v>0.9923851295057338</v>
+        <v>0.9898021271116936</v>
       </c>
       <c r="F11">
-        <v>1.002137153922169</v>
+        <v>1.002036391126399</v>
       </c>
       <c r="G11">
-        <v>1.001951425784338</v>
+        <v>1.002457972335098</v>
       </c>
       <c r="H11">
-        <v>0.9956378902776553</v>
+        <v>0.9947107761490168</v>
       </c>
       <c r="I11">
-        <v>1.005867759328048</v>
+        <v>1.005181815265217</v>
       </c>
       <c r="J11">
-        <v>1.001500094260128</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="K11">
-        <v>1.001500094260128</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="L11">
-        <v>1.002137153922169</v>
+        <v>1.002036391126399</v>
       </c>
       <c r="M11">
-        <v>0.9972611417139513</v>
+        <v>0.995919259119046</v>
       </c>
       <c r="N11">
-        <v>0.9972611417139513</v>
+        <v>0.995919259119046</v>
       </c>
       <c r="O11">
-        <v>0.9967200579018526</v>
+        <v>0.9955164314623696</v>
       </c>
       <c r="P11">
-        <v>0.99867412589601</v>
+        <v>0.9984403091570897</v>
       </c>
       <c r="Q11">
-        <v>0.99867412589601</v>
+        <v>0.9984403091570897</v>
       </c>
       <c r="R11">
-        <v>0.9993806179870395</v>
+        <v>0.9997008341761116</v>
       </c>
       <c r="S11">
-        <v>0.9993806179870395</v>
+        <v>0.9997008341761116</v>
       </c>
       <c r="T11">
-        <v>0.9999132421796785</v>
+        <v>0.9996119152034336</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.059173030296684</v>
+        <v>0.9950962938567034</v>
       </c>
       <c r="D12">
-        <v>1.000686663871969</v>
+        <v>1.001708731254284</v>
       </c>
       <c r="E12">
-        <v>1.059173030296684</v>
+        <v>0.9950962938567034</v>
       </c>
       <c r="F12">
-        <v>0.9765893042771374</v>
+        <v>1.000959574453756</v>
       </c>
       <c r="G12">
-        <v>0.9836147814619969</v>
+        <v>1.001177988892016</v>
       </c>
       <c r="H12">
-        <v>1.038172310394908</v>
+        <v>0.9974709410298349</v>
       </c>
       <c r="I12">
-        <v>0.9328916008252881</v>
+        <v>1.00242580710065</v>
       </c>
       <c r="J12">
-        <v>1.000686663871969</v>
+        <v>1.001708731254284</v>
       </c>
       <c r="K12">
-        <v>1.000686663871969</v>
+        <v>1.001708731254284</v>
       </c>
       <c r="L12">
-        <v>0.9765893042771374</v>
+        <v>1.000959574453756</v>
       </c>
       <c r="M12">
-        <v>1.017881167286911</v>
+        <v>0.9980279341552299</v>
       </c>
       <c r="N12">
-        <v>1.017881167286911</v>
+        <v>0.9980279341552299</v>
       </c>
       <c r="O12">
-        <v>1.024644881656243</v>
+        <v>0.9978422697800983</v>
       </c>
       <c r="P12">
-        <v>1.012149666148597</v>
+        <v>0.9992548665215814</v>
       </c>
       <c r="Q12">
-        <v>1.012149666148597</v>
+        <v>0.9992548665215814</v>
       </c>
       <c r="R12">
-        <v>1.00928391557944</v>
+        <v>0.9998683327047571</v>
       </c>
       <c r="S12">
-        <v>1.00928391557944</v>
+        <v>0.9998683327047571</v>
       </c>
       <c r="T12">
-        <v>0.9985212818546639</v>
+        <v>0.9998065560978744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.023103666218639</v>
+        <v>0.9833096727886974</v>
       </c>
       <c r="D13">
-        <v>0.9876535683794688</v>
+        <v>1.006040453735587</v>
       </c>
       <c r="E13">
-        <v>1.023103666218639</v>
+        <v>0.9833096727886974</v>
       </c>
       <c r="F13">
-        <v>0.9978964642106938</v>
+        <v>1.003142322656962</v>
       </c>
       <c r="G13">
-        <v>0.9949101964589003</v>
+        <v>1.003987259037936</v>
       </c>
       <c r="H13">
-        <v>1.01027290884233</v>
+        <v>0.9914695832608005</v>
       </c>
       <c r="I13">
-        <v>0.996455216451657</v>
+        <v>1.007865816912657</v>
       </c>
       <c r="J13">
-        <v>0.9876535683794688</v>
+        <v>1.006040453735587</v>
       </c>
       <c r="K13">
-        <v>0.9876535683794688</v>
+        <v>1.006040453735587</v>
       </c>
       <c r="L13">
-        <v>0.9978964642106938</v>
+        <v>1.003142322656962</v>
       </c>
       <c r="M13">
-        <v>1.010500065214667</v>
+        <v>0.9932259977228298</v>
       </c>
       <c r="N13">
-        <v>1.010500065214667</v>
+        <v>0.9932259977228298</v>
       </c>
       <c r="O13">
-        <v>1.010424346423888</v>
+        <v>0.9926405262354866</v>
       </c>
       <c r="P13">
-        <v>1.002884566269601</v>
+        <v>0.9974974830604154</v>
       </c>
       <c r="Q13">
-        <v>1.002884566269601</v>
+        <v>0.9974974830604154</v>
       </c>
       <c r="R13">
-        <v>0.9990768167970676</v>
+        <v>0.9996332257292083</v>
       </c>
       <c r="S13">
-        <v>0.9990768167970676</v>
+        <v>0.9996332257292083</v>
       </c>
       <c r="T13">
-        <v>1.001715336760282</v>
+        <v>0.9993025180654399</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.060026633002089</v>
+        <v>0.974084149843913</v>
       </c>
       <c r="D14">
-        <v>0.9998628949171429</v>
+        <v>1.008705188855394</v>
       </c>
       <c r="E14">
-        <v>1.060026633002089</v>
+        <v>0.974084149843913</v>
       </c>
       <c r="F14">
-        <v>0.9767934461358041</v>
+        <v>1.005258151136596</v>
       </c>
       <c r="G14">
-        <v>0.9835192342156879</v>
+        <v>1.006263123292312</v>
       </c>
       <c r="H14">
-        <v>1.038178046160238</v>
+        <v>0.9864980028781857</v>
       </c>
       <c r="I14">
-        <v>0.9340352275256499</v>
+        <v>1.013447368832066</v>
       </c>
       <c r="J14">
-        <v>0.9998628949171429</v>
+        <v>1.008705188855394</v>
       </c>
       <c r="K14">
-        <v>0.9998628949171429</v>
+        <v>1.008705188855394</v>
       </c>
       <c r="L14">
-        <v>0.9767934461358041</v>
+        <v>1.005258151136596</v>
       </c>
       <c r="M14">
-        <v>1.018410039568947</v>
+        <v>0.9896711504902547</v>
       </c>
       <c r="N14">
-        <v>1.018410039568947</v>
+        <v>0.9896711504902547</v>
       </c>
       <c r="O14">
-        <v>1.024999375099377</v>
+        <v>0.9886134346195651</v>
       </c>
       <c r="P14">
-        <v>1.012227658018345</v>
+        <v>0.9960158299453009</v>
       </c>
       <c r="Q14">
-        <v>1.012227658018345</v>
+        <v>0.9960158299453009</v>
       </c>
       <c r="R14">
-        <v>1.009136467243045</v>
+        <v>0.9991881696728241</v>
       </c>
       <c r="S14">
-        <v>1.009136467243045</v>
+        <v>0.9991881696728241</v>
       </c>
       <c r="T14">
-        <v>0.9987359136594351</v>
+        <v>0.9990426641397444</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.022535188399311</v>
+        <v>0.9906690605376728</v>
       </c>
       <c r="D15">
-        <v>0.9878789340584816</v>
+        <v>1.003183057193528</v>
       </c>
       <c r="E15">
-        <v>1.022535188399311</v>
+        <v>0.9906690605376728</v>
       </c>
       <c r="F15">
-        <v>0.9978965161556439</v>
+        <v>1.001866288186518</v>
       </c>
       <c r="G15">
-        <v>0.9949759350777625</v>
+        <v>1.00225018730995</v>
       </c>
       <c r="H15">
-        <v>1.010288264478402</v>
+        <v>0.9951555719438107</v>
       </c>
       <c r="I15">
-        <v>0.9959196290067973</v>
+        <v>1.004756587925598</v>
       </c>
       <c r="J15">
-        <v>0.9878789340584816</v>
+        <v>1.003183057193528</v>
       </c>
       <c r="K15">
-        <v>0.9878789340584816</v>
+        <v>1.003183057193528</v>
       </c>
       <c r="L15">
-        <v>0.9978965161556439</v>
+        <v>1.001866288186518</v>
       </c>
       <c r="M15">
-        <v>1.010215852277477</v>
+        <v>0.9962676743620955</v>
       </c>
       <c r="N15">
-        <v>1.010215852277477</v>
+        <v>0.9962676743620955</v>
       </c>
       <c r="O15">
-        <v>1.010239989677786</v>
+        <v>0.9958969735560005</v>
       </c>
       <c r="P15">
-        <v>1.002770212871145</v>
+        <v>0.998572801972573</v>
       </c>
       <c r="Q15">
-        <v>1.002770212871145</v>
+        <v>0.998572801972573</v>
       </c>
       <c r="R15">
-        <v>0.9990473931679794</v>
+        <v>0.9997253657778118</v>
       </c>
       <c r="S15">
-        <v>0.9990473931679794</v>
+        <v>0.9997253657778118</v>
       </c>
       <c r="T15">
-        <v>1.001582411196067</v>
+        <v>0.9996467921828464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8195029810035829</v>
+        <v>0.9819705528289223</v>
       </c>
       <c r="D16">
-        <v>1.059555595735412</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="E16">
-        <v>0.8195029810035829</v>
+        <v>0.9819705528289223</v>
       </c>
       <c r="F16">
-        <v>1.037210968181851</v>
+        <v>1.003594773525874</v>
       </c>
       <c r="G16">
-        <v>1.043725442765226</v>
+        <v>1.004345737344496</v>
       </c>
       <c r="H16">
-        <v>0.9055980348755535</v>
+        <v>0.9906470399478813</v>
       </c>
       <c r="I16">
-        <v>1.095508664664308</v>
+        <v>1.009154166336192</v>
       </c>
       <c r="J16">
-        <v>1.059555595735412</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="K16">
-        <v>1.059555595735412</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="L16">
-        <v>1.037210968181851</v>
+        <v>1.003594773525874</v>
       </c>
       <c r="M16">
-        <v>0.9283569745927167</v>
+        <v>0.9927826631773982</v>
       </c>
       <c r="N16">
-        <v>0.9283569745927167</v>
+        <v>0.9927826631773982</v>
       </c>
       <c r="O16">
-        <v>0.9207706613536623</v>
+        <v>0.9920707887675592</v>
       </c>
       <c r="P16">
-        <v>0.9720898483069483</v>
+        <v>0.9972452986193213</v>
       </c>
       <c r="Q16">
-        <v>0.9720898483069486</v>
+        <v>0.9972452986193213</v>
       </c>
       <c r="R16">
-        <v>0.9939562851640644</v>
+        <v>0.999476616340283</v>
       </c>
       <c r="S16">
-        <v>0.9939562851640644</v>
+        <v>0.999476616340283</v>
       </c>
       <c r="T16">
-        <v>0.9935169478709888</v>
+        <v>0.9993138065810889</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8554457623134352</v>
+        <v>0.9655954804874959</v>
       </c>
       <c r="D17">
-        <v>1.043597404918909</v>
+        <v>1.011589738742236</v>
       </c>
       <c r="E17">
-        <v>0.8554457623134352</v>
+        <v>0.9655954804874959</v>
       </c>
       <c r="F17">
-        <v>1.032076526328221</v>
+        <v>1.006963084143019</v>
       </c>
       <c r="G17">
-        <v>1.035435387618545</v>
+        <v>1.008311959799307</v>
       </c>
       <c r="H17">
-        <v>0.9229260049463077</v>
+        <v>0.9820840710777922</v>
       </c>
       <c r="I17">
-        <v>1.083763504905044</v>
+        <v>1.017801603599642</v>
       </c>
       <c r="J17">
-        <v>1.043597404918909</v>
+        <v>1.011589738742236</v>
       </c>
       <c r="K17">
-        <v>1.043597404918909</v>
+        <v>1.011589738742236</v>
       </c>
       <c r="L17">
-        <v>1.032076526328221</v>
+        <v>1.006963084143019</v>
       </c>
       <c r="M17">
-        <v>0.9437611443208282</v>
+        <v>0.9862792823152577</v>
       </c>
       <c r="N17">
-        <v>0.9437611443208282</v>
+        <v>0.9862792823152577</v>
       </c>
       <c r="O17">
-        <v>0.9368160978626547</v>
+        <v>0.9848808785694358</v>
       </c>
       <c r="P17">
-        <v>0.9770398978535217</v>
+        <v>0.9947161011242504</v>
       </c>
       <c r="Q17">
-        <v>0.9770398978535219</v>
+        <v>0.9947161011242504</v>
       </c>
       <c r="R17">
-        <v>0.9936792746198686</v>
+        <v>0.9989345105287467</v>
       </c>
       <c r="S17">
-        <v>0.9936792746198686</v>
+        <v>0.9989345105287467</v>
       </c>
       <c r="T17">
-        <v>0.9955407651717437</v>
+        <v>0.9987243229749154</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9275435043994298</v>
+        <v>0.9496066082813085</v>
       </c>
       <c r="D18">
-        <v>1.011796595911902</v>
+        <v>1.016883692971348</v>
       </c>
       <c r="E18">
-        <v>0.9275435043994298</v>
+        <v>0.9496066082813085</v>
       </c>
       <c r="F18">
-        <v>1.021660987820049</v>
+        <v>1.010249504173778</v>
       </c>
       <c r="G18">
-        <v>1.018785073038323</v>
+        <v>1.012183675446926</v>
       </c>
       <c r="H18">
-        <v>0.9577591345889976</v>
+        <v>0.9737271274604016</v>
       </c>
       <c r="I18">
-        <v>1.059832507163285</v>
+        <v>1.026232421554377</v>
       </c>
       <c r="J18">
-        <v>1.011796595911902</v>
+        <v>1.016883692971348</v>
       </c>
       <c r="K18">
-        <v>1.011796595911902</v>
+        <v>1.016883692971348</v>
       </c>
       <c r="L18">
-        <v>1.021660987820049</v>
+        <v>1.010249504173778</v>
       </c>
       <c r="M18">
-        <v>0.9746022461097396</v>
+        <v>0.979928056227543</v>
       </c>
       <c r="N18">
-        <v>0.9746022461097396</v>
+        <v>0.979928056227543</v>
       </c>
       <c r="O18">
-        <v>0.9689878756028256</v>
+        <v>0.9778610799718291</v>
       </c>
       <c r="P18">
-        <v>0.9870003627104603</v>
+        <v>0.9922466018088114</v>
       </c>
       <c r="Q18">
-        <v>0.9870003627104603</v>
+        <v>0.9922466018088114</v>
       </c>
       <c r="R18">
-        <v>0.9931994210108206</v>
+        <v>0.9984058745994456</v>
       </c>
       <c r="S18">
-        <v>0.9931994210108206</v>
+        <v>0.9984058745994456</v>
       </c>
       <c r="T18">
-        <v>0.9995629671536644</v>
+        <v>0.9981471716480229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9225275604931662</v>
+        <v>0.9994241650851071</v>
       </c>
       <c r="D19">
-        <v>1.010409619997461</v>
+        <v>1.000082968936213</v>
       </c>
       <c r="E19">
-        <v>0.9225275604931662</v>
+        <v>0.9994241650851071</v>
       </c>
       <c r="F19">
-        <v>1.024408730924213</v>
+        <v>1.000178445226206</v>
       </c>
       <c r="G19">
-        <v>1.020327357674441</v>
+        <v>1.000150610788003</v>
       </c>
       <c r="H19">
-        <v>0.9539670268818986</v>
+        <v>0.9996594531022619</v>
       </c>
       <c r="I19">
-        <v>1.068083939840421</v>
+        <v>1.000497148795451</v>
       </c>
       <c r="J19">
-        <v>1.010409619997461</v>
+        <v>1.000082968936213</v>
       </c>
       <c r="K19">
-        <v>1.010409619997461</v>
+        <v>1.000082968936213</v>
       </c>
       <c r="L19">
-        <v>1.024408730924213</v>
+        <v>1.000178445226206</v>
       </c>
       <c r="M19">
-        <v>0.9734681457086898</v>
+        <v>0.9998013051556565</v>
       </c>
       <c r="N19">
-        <v>0.9734681457086898</v>
+        <v>0.9998013051556565</v>
       </c>
       <c r="O19">
-        <v>0.966967772766426</v>
+        <v>0.9997540211378583</v>
       </c>
       <c r="P19">
-        <v>0.9857819704716135</v>
+        <v>0.9998951930825085</v>
       </c>
       <c r="Q19">
-        <v>0.9857819704716135</v>
+        <v>0.9998951930825085</v>
       </c>
       <c r="R19">
-        <v>0.9919388828530754</v>
+        <v>0.9999421370459345</v>
       </c>
       <c r="S19">
-        <v>0.9919388828530754</v>
+        <v>0.9999421370459345</v>
       </c>
       <c r="T19">
-        <v>0.9999540393019336</v>
+        <v>0.9999987986555402</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000122755157503</v>
+        <v>0.9985136898300557</v>
       </c>
       <c r="D20">
-        <v>0.9997290296049722</v>
+        <v>1.000242508587172</v>
       </c>
       <c r="E20">
-        <v>1.000122755157503</v>
+        <v>0.9985136898300557</v>
       </c>
       <c r="F20">
-        <v>1.000099794498219</v>
+        <v>1.000444931837519</v>
       </c>
       <c r="G20">
-        <v>0.9999917010165257</v>
+        <v>1.000385917631176</v>
       </c>
       <c r="H20">
-        <v>0.9999903603266789</v>
+        <v>0.9991309297087024</v>
       </c>
       <c r="I20">
-        <v>1.000321285190408</v>
+        <v>1.001233529834948</v>
       </c>
       <c r="J20">
-        <v>0.9997290296049722</v>
+        <v>1.000242508587172</v>
       </c>
       <c r="K20">
-        <v>0.9997290296049722</v>
+        <v>1.000242508587172</v>
       </c>
       <c r="L20">
-        <v>1.000099794498219</v>
+        <v>1.000444931837519</v>
       </c>
       <c r="M20">
-        <v>1.000111274827861</v>
+        <v>0.9994793108337872</v>
       </c>
       <c r="N20">
-        <v>1.000111274827861</v>
+        <v>0.9994793108337872</v>
       </c>
       <c r="O20">
-        <v>1.000070969994134</v>
+        <v>0.9993631837920923</v>
       </c>
       <c r="P20">
-        <v>0.999983859753565</v>
+        <v>0.9997337100849156</v>
       </c>
       <c r="Q20">
-        <v>0.999983859753565</v>
+        <v>0.9997337100849156</v>
       </c>
       <c r="R20">
-        <v>0.9999201522164167</v>
+        <v>0.9998609097104798</v>
       </c>
       <c r="S20">
-        <v>0.9999201522164167</v>
+        <v>0.9998609097104798</v>
       </c>
       <c r="T20">
-        <v>1.000042487632385</v>
+        <v>0.9999919179049289</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9990886980631006</v>
+        <v>0.9978747653854858</v>
       </c>
       <c r="D21">
-        <v>1.000462004651245</v>
+        <v>1.000411403629503</v>
       </c>
       <c r="E21">
-        <v>0.9990886980631006</v>
+        <v>0.9978747653854858</v>
       </c>
       <c r="F21">
-        <v>1.00010220589827</v>
+        <v>1.000600239523574</v>
       </c>
       <c r="G21">
-        <v>1.000207104688598</v>
+        <v>1.000545186529268</v>
       </c>
       <c r="H21">
-        <v>0.9995691493043939</v>
+        <v>0.9987807427830051</v>
       </c>
       <c r="I21">
-        <v>1.000227061334568</v>
+        <v>1.001648531888689</v>
       </c>
       <c r="J21">
-        <v>1.000462004651245</v>
+        <v>1.000411403629503</v>
       </c>
       <c r="K21">
-        <v>1.000462004651245</v>
+        <v>1.000411403629503</v>
       </c>
       <c r="L21">
-        <v>1.00010220589827</v>
+        <v>1.000600239523574</v>
       </c>
       <c r="M21">
-        <v>0.9995954519806853</v>
+        <v>0.9992375024545297</v>
       </c>
       <c r="N21">
-        <v>0.9995954519806853</v>
+        <v>0.9992375024545297</v>
       </c>
       <c r="O21">
-        <v>0.9995866844219216</v>
+        <v>0.9990852492306882</v>
       </c>
       <c r="P21">
-        <v>0.999884302870872</v>
+        <v>0.9996288028461873</v>
       </c>
       <c r="Q21">
-        <v>0.999884302870872</v>
+        <v>0.9996288028461873</v>
       </c>
       <c r="R21">
-        <v>1.000028728315965</v>
+        <v>0.9998244530420162</v>
       </c>
       <c r="S21">
-        <v>1.000028728315965</v>
+        <v>0.9998244530420162</v>
       </c>
       <c r="T21">
-        <v>0.9999427039900294</v>
+        <v>0.999976811623254</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9975026110899378</v>
+        <v>0.9954754003431316</v>
       </c>
       <c r="D22">
-        <v>1.000304568767843</v>
+        <v>1.000794806432039</v>
       </c>
       <c r="E22">
-        <v>0.9975026110899378</v>
+        <v>0.9954754003431316</v>
       </c>
       <c r="F22">
-        <v>1.000794857743396</v>
+        <v>1.001323258051913</v>
       </c>
       <c r="G22">
-        <v>1.000651918311122</v>
+        <v>1.001169191779771</v>
       </c>
       <c r="H22">
-        <v>0.998533522933563</v>
+        <v>0.9973740454361889</v>
       </c>
       <c r="I22">
-        <v>1.002176290464938</v>
+        <v>1.003656361680993</v>
       </c>
       <c r="J22">
-        <v>1.000304568767843</v>
+        <v>1.000794806432039</v>
       </c>
       <c r="K22">
-        <v>1.000304568767843</v>
+        <v>1.000794806432039</v>
       </c>
       <c r="L22">
-        <v>1.000794857743396</v>
+        <v>1.001323258051913</v>
       </c>
       <c r="M22">
-        <v>0.9991487344166672</v>
+        <v>0.9983993291975223</v>
       </c>
       <c r="N22">
-        <v>0.9991487344166672</v>
+        <v>0.9983993291975223</v>
       </c>
       <c r="O22">
-        <v>0.9989436639222991</v>
+        <v>0.9980575679437446</v>
       </c>
       <c r="P22">
-        <v>0.9995340125337259</v>
+        <v>0.9991978216090279</v>
       </c>
       <c r="Q22">
-        <v>0.9995340125337258</v>
+        <v>0.9991978216090279</v>
       </c>
       <c r="R22">
-        <v>0.9997266515922552</v>
+        <v>0.9995970678147807</v>
       </c>
       <c r="S22">
-        <v>0.9997266515922552</v>
+        <v>0.9995970678147807</v>
       </c>
       <c r="T22">
-        <v>0.9999939615518002</v>
+        <v>0.9999655106206727</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9923851295057338</v>
+      </c>
+      <c r="D23">
+        <v>1.001500094260128</v>
+      </c>
+      <c r="E23">
+        <v>0.9923851295057338</v>
+      </c>
+      <c r="F23">
+        <v>1.002137153922169</v>
+      </c>
+      <c r="G23">
+        <v>1.001951425784338</v>
+      </c>
+      <c r="H23">
+        <v>0.9956378902776553</v>
+      </c>
+      <c r="I23">
+        <v>1.005867759328048</v>
+      </c>
+      <c r="J23">
+        <v>1.001500094260128</v>
+      </c>
+      <c r="K23">
+        <v>1.001500094260128</v>
+      </c>
+      <c r="L23">
+        <v>1.002137153922169</v>
+      </c>
+      <c r="M23">
+        <v>0.9972611417139513</v>
+      </c>
+      <c r="N23">
+        <v>0.9972611417139513</v>
+      </c>
+      <c r="O23">
+        <v>0.9967200579018526</v>
+      </c>
+      <c r="P23">
+        <v>0.99867412589601</v>
+      </c>
+      <c r="Q23">
+        <v>0.99867412589601</v>
+      </c>
+      <c r="R23">
+        <v>0.9993806179870395</v>
+      </c>
+      <c r="S23">
+        <v>0.9993806179870395</v>
+      </c>
+      <c r="T23">
+        <v>0.9999132421796785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.059173030296684</v>
+      </c>
+      <c r="D24">
+        <v>1.000686663871969</v>
+      </c>
+      <c r="E24">
+        <v>1.059173030296684</v>
+      </c>
+      <c r="F24">
+        <v>0.9765893042771374</v>
+      </c>
+      <c r="G24">
+        <v>0.9836147814619969</v>
+      </c>
+      <c r="H24">
+        <v>1.038172310394908</v>
+      </c>
+      <c r="I24">
+        <v>0.9328916008252881</v>
+      </c>
+      <c r="J24">
+        <v>1.000686663871969</v>
+      </c>
+      <c r="K24">
+        <v>1.000686663871969</v>
+      </c>
+      <c r="L24">
+        <v>0.9765893042771374</v>
+      </c>
+      <c r="M24">
+        <v>1.017881167286911</v>
+      </c>
+      <c r="N24">
+        <v>1.017881167286911</v>
+      </c>
+      <c r="O24">
+        <v>1.024644881656243</v>
+      </c>
+      <c r="P24">
+        <v>1.012149666148597</v>
+      </c>
+      <c r="Q24">
+        <v>1.012149666148597</v>
+      </c>
+      <c r="R24">
+        <v>1.00928391557944</v>
+      </c>
+      <c r="S24">
+        <v>1.00928391557944</v>
+      </c>
+      <c r="T24">
+        <v>0.9985212818546639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.023103666218639</v>
+      </c>
+      <c r="D25">
+        <v>0.9876535683794688</v>
+      </c>
+      <c r="E25">
+        <v>1.023103666218639</v>
+      </c>
+      <c r="F25">
+        <v>0.9978964642106938</v>
+      </c>
+      <c r="G25">
+        <v>0.9949101964589003</v>
+      </c>
+      <c r="H25">
+        <v>1.01027290884233</v>
+      </c>
+      <c r="I25">
+        <v>0.996455216451657</v>
+      </c>
+      <c r="J25">
+        <v>0.9876535683794688</v>
+      </c>
+      <c r="K25">
+        <v>0.9876535683794688</v>
+      </c>
+      <c r="L25">
+        <v>0.9978964642106938</v>
+      </c>
+      <c r="M25">
+        <v>1.010500065214667</v>
+      </c>
+      <c r="N25">
+        <v>1.010500065214667</v>
+      </c>
+      <c r="O25">
+        <v>1.010424346423888</v>
+      </c>
+      <c r="P25">
+        <v>1.002884566269601</v>
+      </c>
+      <c r="Q25">
+        <v>1.002884566269601</v>
+      </c>
+      <c r="R25">
+        <v>0.9990768167970676</v>
+      </c>
+      <c r="S25">
+        <v>0.9990768167970676</v>
+      </c>
+      <c r="T25">
+        <v>1.001715336760282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.060026633002089</v>
+      </c>
+      <c r="D26">
+        <v>0.9998628949171429</v>
+      </c>
+      <c r="E26">
+        <v>1.060026633002089</v>
+      </c>
+      <c r="F26">
+        <v>0.9767934461358041</v>
+      </c>
+      <c r="G26">
+        <v>0.9835192342156879</v>
+      </c>
+      <c r="H26">
+        <v>1.038178046160238</v>
+      </c>
+      <c r="I26">
+        <v>0.9340352275256499</v>
+      </c>
+      <c r="J26">
+        <v>0.9998628949171429</v>
+      </c>
+      <c r="K26">
+        <v>0.9998628949171429</v>
+      </c>
+      <c r="L26">
+        <v>0.9767934461358041</v>
+      </c>
+      <c r="M26">
+        <v>1.018410039568947</v>
+      </c>
+      <c r="N26">
+        <v>1.018410039568947</v>
+      </c>
+      <c r="O26">
+        <v>1.024999375099377</v>
+      </c>
+      <c r="P26">
+        <v>1.012227658018345</v>
+      </c>
+      <c r="Q26">
+        <v>1.012227658018345</v>
+      </c>
+      <c r="R26">
+        <v>1.009136467243045</v>
+      </c>
+      <c r="S26">
+        <v>1.009136467243045</v>
+      </c>
+      <c r="T26">
+        <v>0.9987359136594351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.022535188399311</v>
+      </c>
+      <c r="D27">
+        <v>0.9878789340584816</v>
+      </c>
+      <c r="E27">
+        <v>1.022535188399311</v>
+      </c>
+      <c r="F27">
+        <v>0.9978965161556439</v>
+      </c>
+      <c r="G27">
+        <v>0.9949759350777625</v>
+      </c>
+      <c r="H27">
+        <v>1.010288264478402</v>
+      </c>
+      <c r="I27">
+        <v>0.9959196290067973</v>
+      </c>
+      <c r="J27">
+        <v>0.9878789340584816</v>
+      </c>
+      <c r="K27">
+        <v>0.9878789340584816</v>
+      </c>
+      <c r="L27">
+        <v>0.9978965161556439</v>
+      </c>
+      <c r="M27">
+        <v>1.010215852277477</v>
+      </c>
+      <c r="N27">
+        <v>1.010215852277477</v>
+      </c>
+      <c r="O27">
+        <v>1.010239989677786</v>
+      </c>
+      <c r="P27">
+        <v>1.002770212871145</v>
+      </c>
+      <c r="Q27">
+        <v>1.002770212871145</v>
+      </c>
+      <c r="R27">
+        <v>0.9990473931679794</v>
+      </c>
+      <c r="S27">
+        <v>0.9990473931679794</v>
+      </c>
+      <c r="T27">
+        <v>1.001582411196067</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8195029810035829</v>
+      </c>
+      <c r="D28">
+        <v>1.059555595735412</v>
+      </c>
+      <c r="E28">
+        <v>0.8195029810035829</v>
+      </c>
+      <c r="F28">
+        <v>1.037210968181851</v>
+      </c>
+      <c r="G28">
+        <v>1.043725442765226</v>
+      </c>
+      <c r="H28">
+        <v>0.9055980348755535</v>
+      </c>
+      <c r="I28">
+        <v>1.095508664664308</v>
+      </c>
+      <c r="J28">
+        <v>1.059555595735412</v>
+      </c>
+      <c r="K28">
+        <v>1.059555595735412</v>
+      </c>
+      <c r="L28">
+        <v>1.037210968181851</v>
+      </c>
+      <c r="M28">
+        <v>0.9283569745927167</v>
+      </c>
+      <c r="N28">
+        <v>0.9283569745927167</v>
+      </c>
+      <c r="O28">
+        <v>0.9207706613536623</v>
+      </c>
+      <c r="P28">
+        <v>0.9720898483069483</v>
+      </c>
+      <c r="Q28">
+        <v>0.9720898483069486</v>
+      </c>
+      <c r="R28">
+        <v>0.9939562851640644</v>
+      </c>
+      <c r="S28">
+        <v>0.9939562851640644</v>
+      </c>
+      <c r="T28">
+        <v>0.9935169478709888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8554457623134352</v>
+      </c>
+      <c r="D29">
+        <v>1.043597404918909</v>
+      </c>
+      <c r="E29">
+        <v>0.8554457623134352</v>
+      </c>
+      <c r="F29">
+        <v>1.032076526328221</v>
+      </c>
+      <c r="G29">
+        <v>1.035435387618545</v>
+      </c>
+      <c r="H29">
+        <v>0.9229260049463077</v>
+      </c>
+      <c r="I29">
+        <v>1.083763504905044</v>
+      </c>
+      <c r="J29">
+        <v>1.043597404918909</v>
+      </c>
+      <c r="K29">
+        <v>1.043597404918909</v>
+      </c>
+      <c r="L29">
+        <v>1.032076526328221</v>
+      </c>
+      <c r="M29">
+        <v>0.9437611443208282</v>
+      </c>
+      <c r="N29">
+        <v>0.9437611443208282</v>
+      </c>
+      <c r="O29">
+        <v>0.9368160978626547</v>
+      </c>
+      <c r="P29">
+        <v>0.9770398978535217</v>
+      </c>
+      <c r="Q29">
+        <v>0.9770398978535219</v>
+      </c>
+      <c r="R29">
+        <v>0.9936792746198686</v>
+      </c>
+      <c r="S29">
+        <v>0.9936792746198686</v>
+      </c>
+      <c r="T29">
+        <v>0.9955407651717437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9275435043994298</v>
+      </c>
+      <c r="D30">
+        <v>1.011796595911902</v>
+      </c>
+      <c r="E30">
+        <v>0.9275435043994298</v>
+      </c>
+      <c r="F30">
+        <v>1.021660987820049</v>
+      </c>
+      <c r="G30">
+        <v>1.018785073038323</v>
+      </c>
+      <c r="H30">
+        <v>0.9577591345889976</v>
+      </c>
+      <c r="I30">
+        <v>1.059832507163285</v>
+      </c>
+      <c r="J30">
+        <v>1.011796595911902</v>
+      </c>
+      <c r="K30">
+        <v>1.011796595911902</v>
+      </c>
+      <c r="L30">
+        <v>1.021660987820049</v>
+      </c>
+      <c r="M30">
+        <v>0.9746022461097396</v>
+      </c>
+      <c r="N30">
+        <v>0.9746022461097396</v>
+      </c>
+      <c r="O30">
+        <v>0.9689878756028256</v>
+      </c>
+      <c r="P30">
+        <v>0.9870003627104603</v>
+      </c>
+      <c r="Q30">
+        <v>0.9870003627104603</v>
+      </c>
+      <c r="R30">
+        <v>0.9931994210108206</v>
+      </c>
+      <c r="S30">
+        <v>0.9931994210108206</v>
+      </c>
+      <c r="T30">
+        <v>0.9995629671536644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9225275604931662</v>
+      </c>
+      <c r="D31">
+        <v>1.010409619997461</v>
+      </c>
+      <c r="E31">
+        <v>0.9225275604931662</v>
+      </c>
+      <c r="F31">
+        <v>1.024408730924213</v>
+      </c>
+      <c r="G31">
+        <v>1.020327357674441</v>
+      </c>
+      <c r="H31">
+        <v>0.9539670268818986</v>
+      </c>
+      <c r="I31">
+        <v>1.068083939840421</v>
+      </c>
+      <c r="J31">
+        <v>1.010409619997461</v>
+      </c>
+      <c r="K31">
+        <v>1.010409619997461</v>
+      </c>
+      <c r="L31">
+        <v>1.024408730924213</v>
+      </c>
+      <c r="M31">
+        <v>0.9734681457086898</v>
+      </c>
+      <c r="N31">
+        <v>0.9734681457086898</v>
+      </c>
+      <c r="O31">
+        <v>0.966967772766426</v>
+      </c>
+      <c r="P31">
+        <v>0.9857819704716135</v>
+      </c>
+      <c r="Q31">
+        <v>0.9857819704716135</v>
+      </c>
+      <c r="R31">
+        <v>0.9919388828530754</v>
+      </c>
+      <c r="S31">
+        <v>0.9919388828530754</v>
+      </c>
+      <c r="T31">
+        <v>0.9999540393019336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.7829456884931506</v>
+      </c>
+      <c r="D32">
+        <v>1.07622371369863</v>
+      </c>
+      <c r="E32">
+        <v>0.7829456884931506</v>
+      </c>
+      <c r="F32">
+        <v>1.04220070410959</v>
+      </c>
+      <c r="G32">
+        <v>1.052119956164384</v>
+      </c>
+      <c r="H32">
+        <v>0.8880990024657534</v>
+      </c>
+      <c r="I32">
+        <v>1.10676029589041</v>
+      </c>
+      <c r="J32">
+        <v>1.07622371369863</v>
+      </c>
+      <c r="K32">
+        <v>1.07622371369863</v>
+      </c>
+      <c r="L32">
+        <v>1.04220070410959</v>
+      </c>
+      <c r="M32">
+        <v>0.9125731963013701</v>
+      </c>
+      <c r="N32">
+        <v>0.9125731963013701</v>
+      </c>
+      <c r="O32">
+        <v>0.9044151316894978</v>
+      </c>
+      <c r="P32">
+        <v>0.9671233687671235</v>
+      </c>
+      <c r="Q32">
+        <v>0.9671233687671233</v>
+      </c>
+      <c r="R32">
+        <v>0.994398455</v>
+      </c>
+      <c r="S32">
+        <v>0.994398455</v>
+      </c>
+      <c r="T32">
+        <v>0.9913915601369864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9244845721052631</v>
+      </c>
+      <c r="D33">
+        <v>0.9989846957894736</v>
+      </c>
+      <c r="E33">
+        <v>0.9244845721052631</v>
+      </c>
+      <c r="F33">
+        <v>1.030155067894737</v>
+      </c>
+      <c r="G33">
+        <v>1.021067498421053</v>
+      </c>
+      <c r="H33">
+        <v>0.9506081805263159</v>
+      </c>
+      <c r="I33">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="J33">
+        <v>0.9989846957894736</v>
+      </c>
+      <c r="K33">
+        <v>0.9989846957894736</v>
+      </c>
+      <c r="L33">
+        <v>1.030155067894737</v>
+      </c>
+      <c r="M33">
+        <v>0.97731982</v>
+      </c>
+      <c r="N33">
+        <v>0.97731982</v>
+      </c>
+      <c r="O33">
+        <v>0.9684159401754386</v>
+      </c>
+      <c r="P33">
+        <v>0.9845414452631579</v>
+      </c>
+      <c r="Q33">
+        <v>0.9845414452631579</v>
+      </c>
+      <c r="R33">
+        <v>0.9881522578947368</v>
+      </c>
+      <c r="S33">
+        <v>0.9881522578947368</v>
+      </c>
+      <c r="T33">
+        <v>1.002133710701754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.904335912631579</v>
+      </c>
+      <c r="D34">
+        <v>1.029180772105263</v>
+      </c>
+      <c r="E34">
+        <v>0.904335912631579</v>
+      </c>
+      <c r="F34">
+        <v>1.020864081578947</v>
+      </c>
+      <c r="G34">
+        <v>1.023288769473684</v>
+      </c>
+      <c r="H34">
+        <v>0.9496753215789474</v>
+      </c>
+      <c r="I34">
+        <v>1.053399895789473</v>
+      </c>
+      <c r="J34">
+        <v>1.029180772105263</v>
+      </c>
+      <c r="K34">
+        <v>1.029180772105263</v>
+      </c>
+      <c r="L34">
+        <v>1.020864081578947</v>
+      </c>
+      <c r="M34">
+        <v>0.9625999971052632</v>
+      </c>
+      <c r="N34">
+        <v>0.9625999971052632</v>
+      </c>
+      <c r="O34">
+        <v>0.9582917719298246</v>
+      </c>
+      <c r="P34">
+        <v>0.98479358877193</v>
+      </c>
+      <c r="Q34">
+        <v>0.98479358877193</v>
+      </c>
+      <c r="R34">
+        <v>0.9958903846052634</v>
+      </c>
+      <c r="S34">
+        <v>0.9958903846052634</v>
+      </c>
+      <c r="T34">
+        <v>0.9967907921929825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7207783439175101</v>
+      </c>
+      <c r="D35">
+        <v>1.033536689761916</v>
+      </c>
+      <c r="E35">
+        <v>0.7207783439175101</v>
+      </c>
+      <c r="F35">
+        <v>1.09020409329322</v>
+      </c>
+      <c r="G35">
+        <v>1.073683011327321</v>
+      </c>
+      <c r="H35">
+        <v>0.832595627164289</v>
+      </c>
+      <c r="I35">
+        <v>1.252620689675771</v>
+      </c>
+      <c r="J35">
+        <v>1.033536689761916</v>
+      </c>
+      <c r="K35">
+        <v>1.033536689761916</v>
+      </c>
+      <c r="L35">
+        <v>1.09020409329322</v>
+      </c>
+      <c r="M35">
+        <v>0.9054912186053652</v>
+      </c>
+      <c r="N35">
+        <v>0.9054912186053652</v>
+      </c>
+      <c r="O35">
+        <v>0.8811926881250064</v>
+      </c>
+      <c r="P35">
+        <v>0.9481730423242155</v>
+      </c>
+      <c r="Q35">
+        <v>0.9481730423242155</v>
+      </c>
+      <c r="R35">
+        <v>0.9695139541836407</v>
+      </c>
+      <c r="S35">
+        <v>0.9695139541836407</v>
+      </c>
+      <c r="T35">
+        <v>1.000569742523338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000122755157503</v>
+      </c>
+      <c r="D36">
+        <v>0.9997290296049722</v>
+      </c>
+      <c r="E36">
+        <v>1.000122755157503</v>
+      </c>
+      <c r="F36">
+        <v>1.000099794498219</v>
+      </c>
+      <c r="G36">
+        <v>0.9999917010165257</v>
+      </c>
+      <c r="H36">
+        <v>0.9999903603266789</v>
+      </c>
+      <c r="I36">
+        <v>1.000321285190408</v>
+      </c>
+      <c r="J36">
+        <v>0.9997290296049722</v>
+      </c>
+      <c r="K36">
+        <v>0.9997290296049722</v>
+      </c>
+      <c r="L36">
+        <v>1.000099794498219</v>
+      </c>
+      <c r="M36">
+        <v>1.000111274827861</v>
+      </c>
+      <c r="N36">
+        <v>1.000111274827861</v>
+      </c>
+      <c r="O36">
+        <v>1.000070969994134</v>
+      </c>
+      <c r="P36">
+        <v>0.999983859753565</v>
+      </c>
+      <c r="Q36">
+        <v>0.999983859753565</v>
+      </c>
+      <c r="R36">
+        <v>0.9999201522164167</v>
+      </c>
+      <c r="S36">
+        <v>0.9999201522164167</v>
+      </c>
+      <c r="T36">
+        <v>1.000042487632385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9990886980631006</v>
+      </c>
+      <c r="D37">
+        <v>1.000462004651245</v>
+      </c>
+      <c r="E37">
+        <v>0.9990886980631006</v>
+      </c>
+      <c r="F37">
+        <v>1.00010220589827</v>
+      </c>
+      <c r="G37">
+        <v>1.000207104688598</v>
+      </c>
+      <c r="H37">
+        <v>0.9995691493043939</v>
+      </c>
+      <c r="I37">
+        <v>1.000227061334568</v>
+      </c>
+      <c r="J37">
+        <v>1.000462004651245</v>
+      </c>
+      <c r="K37">
+        <v>1.000462004651245</v>
+      </c>
+      <c r="L37">
+        <v>1.00010220589827</v>
+      </c>
+      <c r="M37">
+        <v>0.9995954519806853</v>
+      </c>
+      <c r="N37">
+        <v>0.9995954519806853</v>
+      </c>
+      <c r="O37">
+        <v>0.9995866844219216</v>
+      </c>
+      <c r="P37">
+        <v>0.999884302870872</v>
+      </c>
+      <c r="Q37">
+        <v>0.999884302870872</v>
+      </c>
+      <c r="R37">
+        <v>1.000028728315965</v>
+      </c>
+      <c r="S37">
+        <v>1.000028728315965</v>
+      </c>
+      <c r="T37">
+        <v>0.9999427039900294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9975026110899378</v>
+      </c>
+      <c r="D38">
+        <v>1.000304568767843</v>
+      </c>
+      <c r="E38">
+        <v>0.9975026110899378</v>
+      </c>
+      <c r="F38">
+        <v>1.000794857743396</v>
+      </c>
+      <c r="G38">
+        <v>1.000651918311122</v>
+      </c>
+      <c r="H38">
+        <v>0.998533522933563</v>
+      </c>
+      <c r="I38">
+        <v>1.002176290464938</v>
+      </c>
+      <c r="J38">
+        <v>1.000304568767843</v>
+      </c>
+      <c r="K38">
+        <v>1.000304568767843</v>
+      </c>
+      <c r="L38">
+        <v>1.000794857743396</v>
+      </c>
+      <c r="M38">
+        <v>0.9991487344166672</v>
+      </c>
+      <c r="N38">
+        <v>0.9991487344166672</v>
+      </c>
+      <c r="O38">
+        <v>0.9989436639222991</v>
+      </c>
+      <c r="P38">
+        <v>0.9995340125337259</v>
+      </c>
+      <c r="Q38">
+        <v>0.9995340125337258</v>
+      </c>
+      <c r="R38">
+        <v>0.9997266515922552</v>
+      </c>
+      <c r="S38">
+        <v>0.9997266515922552</v>
+      </c>
+      <c r="T38">
+        <v>0.9999939615518002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9944876538330214</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000039631639551</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9944876538330214</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.002087864800882</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.001490713652553</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9965915204909385</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.005783905503983</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000039631639551</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000039631639551</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.002087864800882</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9982877593169519</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9982877593169519</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9977223463749474</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9988717167578184</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9988717167578184</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9991636954782517</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9991636954782517</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000080214986822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9727521770788741</v>
+      </c>
+      <c r="D40">
+        <v>1.00451391354279</v>
+      </c>
+      <c r="E40">
+        <v>0.9727521770788741</v>
+      </c>
+      <c r="F40">
+        <v>1.008054877819295</v>
+      </c>
+      <c r="G40">
+        <v>1.007022527285734</v>
+      </c>
+      <c r="H40">
+        <v>0.9842914272502238</v>
+      </c>
+      <c r="I40">
+        <v>1.021980493675444</v>
+      </c>
+      <c r="J40">
+        <v>1.00451391354279</v>
+      </c>
+      <c r="K40">
+        <v>1.00451391354279</v>
+      </c>
+      <c r="L40">
+        <v>1.008054877819295</v>
+      </c>
+      <c r="M40">
+        <v>0.9904035274490848</v>
+      </c>
+      <c r="N40">
+        <v>0.9904035274490848</v>
+      </c>
+      <c r="O40">
+        <v>0.9883661607161311</v>
+      </c>
+      <c r="P40">
+        <v>0.9951069894803197</v>
+      </c>
+      <c r="Q40">
+        <v>0.9951069894803197</v>
+      </c>
+      <c r="R40">
+        <v>0.9974587204959373</v>
+      </c>
+      <c r="S40">
+        <v>0.9974587204959373</v>
+      </c>
+      <c r="T40">
+        <v>0.9997692361087268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.015515745148322</v>
+      </c>
+      <c r="D41">
+        <v>0.9978712125644216</v>
+      </c>
+      <c r="E41">
+        <v>1.015515745148322</v>
+      </c>
+      <c r="F41">
+        <v>0.995133905178917</v>
+      </c>
+      <c r="G41">
+        <v>0.9959319560461133</v>
+      </c>
+      <c r="H41">
+        <v>1.009209903823574</v>
+      </c>
+      <c r="I41">
+        <v>0.9864259855025104</v>
+      </c>
+      <c r="J41">
+        <v>0.9978712125644216</v>
+      </c>
+      <c r="K41">
+        <v>0.9978712125644216</v>
+      </c>
+      <c r="L41">
+        <v>0.995133905178917</v>
+      </c>
+      <c r="M41">
+        <v>1.00532482516362</v>
+      </c>
+      <c r="N41">
+        <v>1.00532482516362</v>
+      </c>
+      <c r="O41">
+        <v>1.006619851383604</v>
+      </c>
+      <c r="P41">
+        <v>1.002840287630554</v>
+      </c>
+      <c r="Q41">
+        <v>1.002840287630553</v>
+      </c>
+      <c r="R41">
+        <v>1.001598018864021</v>
+      </c>
+      <c r="S41">
+        <v>1.001598018864021</v>
+      </c>
+      <c r="T41">
+        <v>1.000014784710643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8838767962757186</v>
+      </c>
+      <c r="D42">
+        <v>1.035067164036463</v>
+      </c>
+      <c r="E42">
+        <v>0.8838767962757186</v>
+      </c>
+      <c r="F42">
+        <v>1.025686939899656</v>
+      </c>
+      <c r="G42">
+        <v>1.02842170040434</v>
+      </c>
+      <c r="H42">
+        <v>0.9382752207803186</v>
+      </c>
+      <c r="I42">
+        <v>1.066761592753516</v>
+      </c>
+      <c r="J42">
+        <v>1.035067164036463</v>
+      </c>
+      <c r="K42">
+        <v>1.035067164036463</v>
+      </c>
+      <c r="L42">
+        <v>1.025686939899656</v>
+      </c>
+      <c r="M42">
+        <v>0.9547818680876874</v>
+      </c>
+      <c r="N42">
+        <v>0.9547818680876874</v>
+      </c>
+      <c r="O42">
+        <v>0.9492796523185644</v>
+      </c>
+      <c r="P42">
+        <v>0.9815436334039459</v>
+      </c>
+      <c r="Q42">
+        <v>0.9815436334039459</v>
+      </c>
+      <c r="R42">
+        <v>0.994924516062075</v>
+      </c>
+      <c r="S42">
+        <v>0.994924516062075</v>
+      </c>
+      <c r="T42">
+        <v>0.9963482356916687</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003183057193528</v>
+        <v>0.9985136898300557</v>
       </c>
       <c r="D3">
-        <v>0.9906690605376728</v>
+        <v>1.000242508587172</v>
       </c>
       <c r="E3">
-        <v>1.001866288186518</v>
+        <v>0.9985136898300557</v>
       </c>
       <c r="F3">
-        <v>1.003183057193528</v>
+        <v>1.000444931837519</v>
       </c>
       <c r="G3">
-        <v>1.004756587925598</v>
+        <v>1.000385917631176</v>
       </c>
       <c r="H3">
-        <v>0.9951555719438107</v>
+        <v>0.9991309297087024</v>
       </c>
       <c r="I3">
-        <v>1.00225018730995</v>
+        <v>1.001233529834948</v>
       </c>
       <c r="J3">
-        <v>0.9906690605376728</v>
+        <v>1.000242508587172</v>
       </c>
       <c r="K3">
-        <v>1.003183057193528</v>
+        <v>1.000242508587172</v>
       </c>
       <c r="L3">
-        <v>1.001866288186518</v>
+        <v>1.000444931837519</v>
       </c>
       <c r="M3">
-        <v>0.9962676743620955</v>
+        <v>0.9994793108337872</v>
       </c>
       <c r="N3">
-        <v>0.9962676743620955</v>
+        <v>0.9994793108337872</v>
       </c>
       <c r="O3">
-        <v>0.9958969735560005</v>
+        <v>0.9993631837920923</v>
       </c>
       <c r="P3">
-        <v>0.998572801972573</v>
+        <v>0.9997337100849156</v>
       </c>
       <c r="Q3">
-        <v>0.998572801972573</v>
+        <v>0.9997337100849156</v>
       </c>
       <c r="R3">
-        <v>0.9997253657778118</v>
+        <v>0.9998609097104798</v>
       </c>
       <c r="S3">
-        <v>0.9997253657778118</v>
+        <v>0.9998609097104798</v>
       </c>
       <c r="T3">
-        <v>0.9996467921828464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999919179049289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006170569503168</v>
+        <v>0.9727521770788741</v>
       </c>
       <c r="D4">
-        <v>0.9819705528289223</v>
+        <v>1.00451391354279</v>
       </c>
       <c r="E4">
-        <v>1.003594773525874</v>
+        <v>0.9727521770788741</v>
       </c>
       <c r="F4">
-        <v>1.006170569503168</v>
+        <v>1.008054877819295</v>
       </c>
       <c r="G4">
-        <v>1.009154166336192</v>
+        <v>1.007022527285734</v>
       </c>
       <c r="H4">
-        <v>0.9906470399478813</v>
+        <v>0.9842914272502238</v>
       </c>
       <c r="I4">
-        <v>1.004345737344496</v>
+        <v>1.021980493675444</v>
       </c>
       <c r="J4">
-        <v>0.9819705528289223</v>
+        <v>1.00451391354279</v>
       </c>
       <c r="K4">
-        <v>1.006170569503168</v>
+        <v>1.00451391354279</v>
       </c>
       <c r="L4">
-        <v>1.003594773525874</v>
+        <v>1.008054877819295</v>
       </c>
       <c r="M4">
-        <v>0.9927826631773982</v>
+        <v>0.9904035274490848</v>
       </c>
       <c r="N4">
-        <v>0.9927826631773982</v>
+        <v>0.9904035274490848</v>
       </c>
       <c r="O4">
-        <v>0.9920707887675592</v>
+        <v>0.9883661607161311</v>
       </c>
       <c r="P4">
-        <v>0.9972452986193213</v>
+        <v>0.9951069894803197</v>
       </c>
       <c r="Q4">
-        <v>0.9972452986193213</v>
+        <v>0.9951069894803197</v>
       </c>
       <c r="R4">
-        <v>0.999476616340283</v>
+        <v>0.9974587204959373</v>
       </c>
       <c r="S4">
-        <v>0.999476616340283</v>
+        <v>0.9974587204959373</v>
       </c>
       <c r="T4">
-        <v>0.9993138065810889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9997692361087268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011589738742236</v>
+        <v>0.9139801389049</v>
       </c>
       <c r="D5">
-        <v>0.9655954804874959</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="E5">
-        <v>1.006963084143019</v>
+        <v>0.9139801389049</v>
       </c>
       <c r="F5">
-        <v>1.011589738742236</v>
+        <v>1.025542767168586</v>
       </c>
       <c r="G5">
-        <v>1.017801603599642</v>
+        <v>1.022270910518734</v>
       </c>
       <c r="H5">
-        <v>0.9820840710777922</v>
+        <v>0.9499585332708916</v>
       </c>
       <c r="I5">
-        <v>1.008311959799307</v>
+        <v>1.070489854668589</v>
       </c>
       <c r="J5">
-        <v>0.9655954804874959</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="K5">
-        <v>1.011589738742236</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="L5">
-        <v>1.006963084143019</v>
+        <v>1.025542767168586</v>
       </c>
       <c r="M5">
-        <v>0.9862792823152577</v>
+        <v>0.9697614530367428</v>
       </c>
       <c r="N5">
-        <v>0.9862792823152577</v>
+        <v>0.9697614530367428</v>
       </c>
       <c r="O5">
-        <v>0.9848808785694358</v>
+        <v>0.9631604797814591</v>
       </c>
       <c r="P5">
-        <v>0.9947161011242504</v>
+        <v>0.9846143980787682</v>
       </c>
       <c r="Q5">
-        <v>0.9947161011242504</v>
+        <v>0.9846143980787682</v>
       </c>
       <c r="R5">
-        <v>0.9989345105287467</v>
+        <v>0.9920408705997809</v>
       </c>
       <c r="S5">
-        <v>0.9989345105287467</v>
+        <v>0.9920408705997809</v>
       </c>
       <c r="T5">
-        <v>0.9987243229749154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9994270821157532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.016883692971348</v>
+        <v>0.7207783439175101</v>
       </c>
       <c r="D6">
-        <v>0.9496066082813085</v>
+        <v>1.033536689761916</v>
       </c>
       <c r="E6">
-        <v>1.010249504173778</v>
+        <v>0.7207783439175101</v>
       </c>
       <c r="F6">
-        <v>1.016883692971348</v>
+        <v>1.09020409329322</v>
       </c>
       <c r="G6">
-        <v>1.026232421554377</v>
+        <v>1.073683011327321</v>
       </c>
       <c r="H6">
-        <v>0.9737271274604016</v>
+        <v>0.832595627164289</v>
       </c>
       <c r="I6">
-        <v>1.012183675446926</v>
+        <v>1.252620689675771</v>
       </c>
       <c r="J6">
-        <v>0.9496066082813085</v>
+        <v>1.033536689761916</v>
       </c>
       <c r="K6">
-        <v>1.016883692971348</v>
+        <v>1.033536689761916</v>
       </c>
       <c r="L6">
-        <v>1.010249504173778</v>
+        <v>1.09020409329322</v>
       </c>
       <c r="M6">
-        <v>0.979928056227543</v>
+        <v>0.9054912186053652</v>
       </c>
       <c r="N6">
-        <v>0.979928056227543</v>
+        <v>0.9054912186053652</v>
       </c>
       <c r="O6">
-        <v>0.9778610799718291</v>
+        <v>0.8811926881250064</v>
       </c>
       <c r="P6">
-        <v>0.9922466018088114</v>
+        <v>0.9481730423242155</v>
       </c>
       <c r="Q6">
-        <v>0.9922466018088114</v>
+        <v>0.9481730423242155</v>
       </c>
       <c r="R6">
-        <v>0.9984058745994456</v>
+        <v>0.9695139541836407</v>
       </c>
       <c r="S6">
-        <v>0.9984058745994456</v>
+        <v>0.9695139541836407</v>
       </c>
       <c r="T6">
-        <v>0.9981471716480229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000569742523338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000082968936213</v>
+        <v>0.9898021271116936</v>
       </c>
       <c r="D7">
-        <v>0.9994241650851071</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="E7">
-        <v>1.000178445226206</v>
+        <v>0.9898021271116936</v>
       </c>
       <c r="F7">
-        <v>1.000082968936213</v>
+        <v>1.002036391126399</v>
       </c>
       <c r="G7">
-        <v>1.000497148795451</v>
+        <v>1.002457972335098</v>
       </c>
       <c r="H7">
-        <v>0.9996594531022619</v>
+        <v>0.9947107761490168</v>
       </c>
       <c r="I7">
-        <v>1.000150610788003</v>
+        <v>1.005181815265217</v>
       </c>
       <c r="J7">
-        <v>0.9994241650851071</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="K7">
-        <v>1.000082968936213</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="L7">
-        <v>1.000178445226206</v>
+        <v>1.002036391126399</v>
       </c>
       <c r="M7">
-        <v>0.9998013051556565</v>
+        <v>0.995919259119046</v>
       </c>
       <c r="N7">
-        <v>0.9998013051556565</v>
+        <v>0.995919259119046</v>
       </c>
       <c r="O7">
-        <v>0.9997540211378583</v>
+        <v>0.9955164314623696</v>
       </c>
       <c r="P7">
-        <v>0.9998951930825086</v>
+        <v>0.9984403091570897</v>
       </c>
       <c r="Q7">
-        <v>0.9998951930825085</v>
+        <v>0.9984403091570897</v>
       </c>
       <c r="R7">
-        <v>0.9999421370459345</v>
+        <v>0.9997008341761116</v>
       </c>
       <c r="S7">
-        <v>0.9999421370459345</v>
+        <v>0.9997008341761116</v>
       </c>
       <c r="T7">
-        <v>0.9999987986555402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9996119152034336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000242508587172</v>
+        <v>0.9990886980631006</v>
       </c>
       <c r="D8">
-        <v>0.9985136898300557</v>
+        <v>1.000462004651245</v>
       </c>
       <c r="E8">
-        <v>1.000444931837518</v>
+        <v>0.9990886980631006</v>
       </c>
       <c r="F8">
-        <v>1.000242508587172</v>
+        <v>1.00010220589827</v>
       </c>
       <c r="G8">
-        <v>1.001233529834948</v>
+        <v>1.000207104688598</v>
       </c>
       <c r="H8">
-        <v>0.9991309297087027</v>
+        <v>0.9995691493043939</v>
       </c>
       <c r="I8">
-        <v>1.000385917631176</v>
+        <v>1.000227061334568</v>
       </c>
       <c r="J8">
-        <v>0.9985136898300557</v>
+        <v>1.000462004651245</v>
       </c>
       <c r="K8">
-        <v>1.000242508587172</v>
+        <v>1.000462004651245</v>
       </c>
       <c r="L8">
-        <v>1.000444931837518</v>
+        <v>1.00010220589827</v>
       </c>
       <c r="M8">
-        <v>0.999479310833787</v>
+        <v>0.9995954519806853</v>
       </c>
       <c r="N8">
-        <v>0.999479310833787</v>
+        <v>0.9995954519806853</v>
       </c>
       <c r="O8">
-        <v>0.9993631837920923</v>
+        <v>0.9995866844219216</v>
       </c>
       <c r="P8">
-        <v>0.9997337100849154</v>
+        <v>0.999884302870872</v>
       </c>
       <c r="Q8">
-        <v>0.9997337100849154</v>
+        <v>0.999884302870872</v>
       </c>
       <c r="R8">
-        <v>0.9998609097104796</v>
+        <v>1.000028728315965</v>
       </c>
       <c r="S8">
-        <v>0.9998609097104796</v>
+        <v>1.000028728315965</v>
       </c>
       <c r="T8">
-        <v>0.9999919179049289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999427039900294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000411403629503</v>
+        <v>0.9819705528289223</v>
       </c>
       <c r="D9">
-        <v>0.9978747653854858</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="E9">
-        <v>1.000600239523574</v>
+        <v>0.9819705528289223</v>
       </c>
       <c r="F9">
-        <v>1.000411403629503</v>
+        <v>1.003594773525874</v>
       </c>
       <c r="G9">
-        <v>1.001648531888689</v>
+        <v>1.004345737344496</v>
       </c>
       <c r="H9">
-        <v>0.9987807427830051</v>
+        <v>0.9906470399478813</v>
       </c>
       <c r="I9">
-        <v>1.000545186529268</v>
+        <v>1.009154166336192</v>
       </c>
       <c r="J9">
-        <v>0.9978747653854858</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="K9">
-        <v>1.000411403629503</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="L9">
-        <v>1.000600239523574</v>
+        <v>1.003594773525874</v>
       </c>
       <c r="M9">
-        <v>0.9992375024545297</v>
+        <v>0.9927826631773982</v>
       </c>
       <c r="N9">
-        <v>0.9992375024545297</v>
+        <v>0.9927826631773982</v>
       </c>
       <c r="O9">
-        <v>0.9990852492306882</v>
+        <v>0.9920707887675592</v>
       </c>
       <c r="P9">
-        <v>0.9996288028461873</v>
+        <v>0.9972452986193213</v>
       </c>
       <c r="Q9">
-        <v>0.9996288028461873</v>
+        <v>0.9972452986193213</v>
       </c>
       <c r="R9">
-        <v>0.9998244530420162</v>
+        <v>0.999476616340283</v>
       </c>
       <c r="S9">
-        <v>0.9998244530420162</v>
+        <v>0.999476616340283</v>
       </c>
       <c r="T9">
-        <v>0.999976811623254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9993138065810889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000794806432039</v>
+        <v>0.7171003891628713</v>
       </c>
       <c r="D10">
-        <v>0.9954754003431316</v>
+        <v>1.033346350085302</v>
       </c>
       <c r="E10">
-        <v>1.001323258051913</v>
+        <v>0.7171003891628713</v>
       </c>
       <c r="F10">
-        <v>1.000794806432039</v>
+        <v>1.091755837308426</v>
       </c>
       <c r="G10">
-        <v>1.003656361680993</v>
+        <v>1.074726859271266</v>
       </c>
       <c r="H10">
-        <v>0.9973740454361889</v>
+        <v>0.8301244336171402</v>
       </c>
       <c r="I10">
-        <v>1.001169191779771</v>
+        <v>1.257171152388839</v>
       </c>
       <c r="J10">
-        <v>0.9954754003431316</v>
+        <v>1.033346350085302</v>
       </c>
       <c r="K10">
-        <v>1.000794806432039</v>
+        <v>1.033346350085302</v>
       </c>
       <c r="L10">
-        <v>1.001323258051913</v>
+        <v>1.091755837308426</v>
       </c>
       <c r="M10">
-        <v>0.9983993291975223</v>
+        <v>0.9044281132356489</v>
       </c>
       <c r="N10">
-        <v>0.9983993291975223</v>
+        <v>0.9044281132356489</v>
       </c>
       <c r="O10">
-        <v>0.9980575679437446</v>
+        <v>0.8796602200294793</v>
       </c>
       <c r="P10">
-        <v>0.9991978216090279</v>
+        <v>0.9474008588521999</v>
       </c>
       <c r="Q10">
-        <v>0.9991978216090279</v>
+        <v>0.9474008588521999</v>
       </c>
       <c r="R10">
-        <v>0.9995970678147807</v>
+        <v>0.9688872316604754</v>
       </c>
       <c r="S10">
-        <v>0.9995970678147807</v>
+        <v>0.9688872316604754</v>
       </c>
       <c r="T10">
-        <v>0.9999655106206727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.000704170305641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001500094260128</v>
+        <v>0.9715183623122309</v>
       </c>
       <c r="D11">
-        <v>0.9923851295057338</v>
+        <v>1.008576319701616</v>
       </c>
       <c r="E11">
-        <v>1.002137153922169</v>
+        <v>0.9715183623122309</v>
       </c>
       <c r="F11">
-        <v>1.001500094260128</v>
+        <v>1.006249336307223</v>
       </c>
       <c r="G11">
-        <v>1.005867759328048</v>
+        <v>1.006927758871744</v>
       </c>
       <c r="H11">
-        <v>0.9956378902776553</v>
+        <v>0.9850527857077779</v>
       </c>
       <c r="I11">
-        <v>1.001951425784338</v>
+        <v>1.015901634135543</v>
       </c>
       <c r="J11">
-        <v>0.9923851295057338</v>
+        <v>1.008576319701616</v>
       </c>
       <c r="K11">
-        <v>1.001500094260128</v>
+        <v>1.008576319701616</v>
       </c>
       <c r="L11">
-        <v>1.002137153922169</v>
+        <v>1.006249336307223</v>
       </c>
       <c r="M11">
-        <v>0.9972611417139514</v>
+        <v>0.9888838493097272</v>
       </c>
       <c r="N11">
-        <v>0.9972611417139514</v>
+        <v>0.9888838493097272</v>
       </c>
       <c r="O11">
-        <v>0.9967200579018526</v>
+        <v>0.9876068281090774</v>
       </c>
       <c r="P11">
-        <v>0.9986741258960102</v>
+        <v>0.9954480061070236</v>
       </c>
       <c r="Q11">
-        <v>0.9986741258960102</v>
+        <v>0.9954480061070234</v>
       </c>
       <c r="R11">
-        <v>0.9993806179870396</v>
+        <v>0.9987300845056717</v>
       </c>
       <c r="S11">
-        <v>0.9993806179870396</v>
+        <v>0.9987300845056717</v>
       </c>
       <c r="T11">
-        <v>0.9999132421796785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9990376995060224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000686663871969</v>
+        <v>0.9152291794000004</v>
       </c>
       <c r="D12">
-        <v>1.059173030296684</v>
+        <v>1.009763615947367</v>
       </c>
       <c r="E12">
-        <v>0.9765893042771374</v>
+        <v>0.9152291794000004</v>
       </c>
       <c r="F12">
-        <v>1.000686663871969</v>
+        <v>1.027615951842106</v>
       </c>
       <c r="G12">
-        <v>0.9328916008252881</v>
+        <v>1.022411192421054</v>
       </c>
       <c r="H12">
-        <v>1.038172310394908</v>
+        <v>0.9490321792736824</v>
       </c>
       <c r="I12">
-        <v>0.9836147814619971</v>
+        <v>1.077422274873685</v>
       </c>
       <c r="J12">
-        <v>1.059173030296684</v>
+        <v>1.009763615947367</v>
       </c>
       <c r="K12">
-        <v>1.000686663871969</v>
+        <v>1.009763615947367</v>
       </c>
       <c r="L12">
-        <v>0.9765893042771374</v>
+        <v>1.027615951842106</v>
       </c>
       <c r="M12">
-        <v>1.017881167286911</v>
+        <v>0.9714225656210531</v>
       </c>
       <c r="N12">
-        <v>1.017881167286911</v>
+        <v>0.9714225656210531</v>
       </c>
       <c r="O12">
-        <v>1.024644881656243</v>
+        <v>0.9639591035052629</v>
       </c>
       <c r="P12">
-        <v>1.012149666148597</v>
+        <v>0.9842029157298242</v>
       </c>
       <c r="Q12">
-        <v>1.012149666148597</v>
+        <v>0.9842029157298243</v>
       </c>
       <c r="R12">
-        <v>1.00928391557944</v>
+        <v>0.99059309078421</v>
       </c>
       <c r="S12">
-        <v>1.00928391557944</v>
+        <v>0.99059309078421</v>
       </c>
       <c r="T12">
-        <v>0.9985212818546639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000245732292983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9876535683794688</v>
+        <v>1.060658054358511</v>
       </c>
       <c r="D13">
-        <v>1.023103666218639</v>
+        <v>0.9859644083136881</v>
       </c>
       <c r="E13">
-        <v>0.9978964642106938</v>
+        <v>1.060658054358511</v>
       </c>
       <c r="F13">
-        <v>0.9876535683794688</v>
+        <v>0.9842495490768516</v>
       </c>
       <c r="G13">
-        <v>0.9964552164516571</v>
+        <v>0.9847495078716771</v>
       </c>
       <c r="H13">
-        <v>1.01027290884233</v>
+        <v>1.033640069086289</v>
       </c>
       <c r="I13">
-        <v>0.9949101964589003</v>
+        <v>0.957884237761884</v>
       </c>
       <c r="J13">
-        <v>1.023103666218639</v>
+        <v>0.9859644083136881</v>
       </c>
       <c r="K13">
-        <v>0.9876535683794688</v>
+        <v>0.9859644083136881</v>
       </c>
       <c r="L13">
-        <v>0.9978964642106938</v>
+        <v>0.9842495490768516</v>
       </c>
       <c r="M13">
-        <v>1.010500065214667</v>
+        <v>1.022453801717681</v>
       </c>
       <c r="N13">
-        <v>1.010500065214667</v>
+        <v>1.022453801717681</v>
       </c>
       <c r="O13">
-        <v>1.010424346423888</v>
+        <v>1.026182557507217</v>
       </c>
       <c r="P13">
-        <v>1.002884566269601</v>
+        <v>1.010290670583017</v>
       </c>
       <c r="Q13">
-        <v>1.002884566269601</v>
+        <v>1.010290670583017</v>
       </c>
       <c r="R13">
-        <v>0.9990768167970676</v>
+        <v>1.004209105015685</v>
       </c>
       <c r="S13">
-        <v>0.9990768167970676</v>
+        <v>1.004209105015685</v>
       </c>
       <c r="T13">
-        <v>1.001715336760282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00119097107815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9998628949171428</v>
+        <v>0.5123396</v>
       </c>
       <c r="D14">
-        <v>1.060026633002089</v>
+        <v>1.055856</v>
       </c>
       <c r="E14">
-        <v>0.9767934461358043</v>
+        <v>0.5123396</v>
       </c>
       <c r="F14">
-        <v>0.9998628949171428</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="G14">
-        <v>0.9340352275256499</v>
+        <v>1.1289846</v>
       </c>
       <c r="H14">
-        <v>1.038178046160238</v>
+        <v>0.7065622300000008</v>
       </c>
       <c r="I14">
-        <v>0.9835192342156879</v>
+        <v>1.446257500000001</v>
       </c>
       <c r="J14">
-        <v>1.060026633002089</v>
+        <v>1.055856</v>
       </c>
       <c r="K14">
-        <v>0.9998628949171428</v>
+        <v>1.055856</v>
       </c>
       <c r="L14">
-        <v>0.9767934461358043</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="M14">
-        <v>1.018410039568947</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="N14">
-        <v>1.018410039568947</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="O14">
-        <v>1.024999375099377</v>
+        <v>0.7926601433333338</v>
       </c>
       <c r="P14">
-        <v>1.012227658018345</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="Q14">
-        <v>1.012227658018346</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="R14">
-        <v>1.009136467243045</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="S14">
-        <v>1.009136467243045</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="T14">
-        <v>0.9987359136594353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.001513088333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9878789340584816</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="D15">
-        <v>1.022535188399311</v>
+        <v>1.1248129</v>
       </c>
       <c r="E15">
-        <v>0.9978965161556439</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="F15">
-        <v>0.9878789340584816</v>
+        <v>1.0262848</v>
       </c>
       <c r="G15">
-        <v>0.9959196290067973</v>
+        <v>1.0550102</v>
       </c>
       <c r="H15">
-        <v>1.010288264478402</v>
+        <v>0.88627042</v>
       </c>
       <c r="I15">
-        <v>0.9949759350777625</v>
+        <v>1.055856</v>
       </c>
       <c r="J15">
-        <v>1.022535188399311</v>
+        <v>1.1248129</v>
       </c>
       <c r="K15">
-        <v>0.9878789340584816</v>
+        <v>1.1248129</v>
       </c>
       <c r="L15">
-        <v>0.9978965161556439</v>
+        <v>1.0262848</v>
       </c>
       <c r="M15">
-        <v>1.010215852277477</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N15">
-        <v>1.010215852277477</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O15">
-        <v>1.010239989677786</v>
+        <v>0.88964224</v>
       </c>
       <c r="P15">
-        <v>1.002770212871145</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q15">
-        <v>1.002770212871145</v>
+        <v>0.9691564</v>
       </c>
       <c r="R15">
-        <v>0.9990473931679794</v>
+        <v>1.008070525</v>
       </c>
       <c r="S15">
-        <v>0.9990473931679794</v>
+        <v>1.008070525</v>
       </c>
       <c r="T15">
-        <v>1.001582411196067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9841009700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997290296049722</v>
+        <v>0.81027012</v>
       </c>
       <c r="D16">
-        <v>1.000122755157503</v>
+        <v>1.0262828</v>
       </c>
       <c r="E16">
-        <v>1.000099794498219</v>
+        <v>0.81027012</v>
       </c>
       <c r="F16">
-        <v>0.9997290296049722</v>
+        <v>1.0585551</v>
       </c>
       <c r="G16">
-        <v>1.000321285190408</v>
+        <v>1.0491463</v>
       </c>
       <c r="H16">
-        <v>0.999990360326679</v>
+        <v>0.88998546</v>
       </c>
       <c r="I16">
-        <v>0.9999917010165257</v>
+        <v>1.1590686</v>
       </c>
       <c r="J16">
-        <v>1.000122755157503</v>
+        <v>1.0262828</v>
       </c>
       <c r="K16">
-        <v>0.9997290296049722</v>
+        <v>1.0262828</v>
       </c>
       <c r="L16">
-        <v>1.000099794498219</v>
+        <v>1.0585551</v>
       </c>
       <c r="M16">
-        <v>1.000111274827861</v>
+        <v>0.93441261</v>
       </c>
       <c r="N16">
-        <v>1.000111274827861</v>
+        <v>0.93441261</v>
       </c>
       <c r="O16">
-        <v>1.000070969994134</v>
+        <v>0.91960356</v>
       </c>
       <c r="P16">
-        <v>0.999983859753565</v>
+        <v>0.9650360066666667</v>
       </c>
       <c r="Q16">
-        <v>0.999983859753565</v>
+        <v>0.9650360066666667</v>
       </c>
       <c r="R16">
-        <v>0.9999201522164167</v>
+        <v>0.980347705</v>
       </c>
       <c r="S16">
-        <v>0.9999201522164167</v>
+        <v>0.980347705</v>
       </c>
       <c r="T16">
-        <v>1.000042487632385</v>
+        <v>0.99888473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000462004651245</v>
+        <v>1.186603</v>
       </c>
       <c r="D17">
-        <v>0.9990886980631009</v>
+        <v>0.91677712</v>
       </c>
       <c r="E17">
-        <v>1.00010220589827</v>
+        <v>1.186603</v>
       </c>
       <c r="F17">
-        <v>1.000462004651245</v>
+        <v>0.97450774</v>
       </c>
       <c r="G17">
-        <v>1.000227061334568</v>
+        <v>0.95767666</v>
       </c>
       <c r="H17">
-        <v>0.9995691493043938</v>
+        <v>1.086851</v>
       </c>
       <c r="I17">
-        <v>1.000207104688599</v>
+        <v>0.9473402399999999</v>
       </c>
       <c r="J17">
-        <v>0.9990886980631009</v>
+        <v>0.91677712</v>
       </c>
       <c r="K17">
-        <v>1.000462004651245</v>
+        <v>0.91677712</v>
       </c>
       <c r="L17">
-        <v>1.00010220589827</v>
+        <v>0.97450774</v>
       </c>
       <c r="M17">
-        <v>0.9995954519806854</v>
+        <v>1.08055537</v>
       </c>
       <c r="N17">
-        <v>0.9995954519806854</v>
+        <v>1.08055537</v>
       </c>
       <c r="O17">
-        <v>0.9995866844219216</v>
+        <v>1.082653913333333</v>
       </c>
       <c r="P17">
-        <v>0.9998843028708722</v>
+        <v>1.02596262</v>
       </c>
       <c r="Q17">
-        <v>0.9998843028708722</v>
+        <v>1.02596262</v>
       </c>
       <c r="R17">
-        <v>1.000028728315965</v>
+        <v>0.998666245</v>
       </c>
       <c r="S17">
-        <v>1.000028728315965</v>
+        <v>0.998666245</v>
       </c>
       <c r="T17">
-        <v>0.9999427039900296</v>
+        <v>1.01162596</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000304568767843</v>
+        <v>0.7829456884931506</v>
       </c>
       <c r="D18">
-        <v>0.9975026110899378</v>
+        <v>1.07622371369863</v>
       </c>
       <c r="E18">
-        <v>1.000794857743396</v>
+        <v>0.7829456884931506</v>
       </c>
       <c r="F18">
-        <v>1.000304568767843</v>
+        <v>1.04220070410959</v>
       </c>
       <c r="G18">
-        <v>1.002176290464938</v>
+        <v>1.052119956164384</v>
       </c>
       <c r="H18">
-        <v>0.998533522933563</v>
+        <v>0.8880990024657534</v>
       </c>
       <c r="I18">
-        <v>1.000651918311122</v>
+        <v>1.10676029589041</v>
       </c>
       <c r="J18">
-        <v>0.9975026110899378</v>
+        <v>1.07622371369863</v>
       </c>
       <c r="K18">
-        <v>1.000304568767843</v>
+        <v>1.07622371369863</v>
       </c>
       <c r="L18">
-        <v>1.000794857743396</v>
+        <v>1.04220070410959</v>
       </c>
       <c r="M18">
-        <v>0.9991487344166672</v>
+        <v>0.9125731963013701</v>
       </c>
       <c r="N18">
-        <v>0.9991487344166672</v>
+        <v>0.9125731963013701</v>
       </c>
       <c r="O18">
-        <v>0.9989436639222991</v>
+        <v>0.9044151316894978</v>
       </c>
       <c r="P18">
-        <v>0.9995340125337259</v>
+        <v>0.9671233687671235</v>
       </c>
       <c r="Q18">
-        <v>0.9995340125337258</v>
+        <v>0.9671233687671233</v>
       </c>
       <c r="R18">
-        <v>0.9997266515922552</v>
+        <v>0.994398455</v>
       </c>
       <c r="S18">
-        <v>0.9997266515922552</v>
+        <v>0.994398455</v>
       </c>
       <c r="T18">
-        <v>0.9999939615518002</v>
+        <v>0.9913915601369864</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000039631639551</v>
+        <v>0.9244845721052631</v>
       </c>
       <c r="D19">
-        <v>0.9944876538330215</v>
+        <v>0.9989846957894736</v>
       </c>
       <c r="E19">
-        <v>1.002087864800882</v>
+        <v>0.9244845721052631</v>
       </c>
       <c r="F19">
-        <v>1.000039631639551</v>
+        <v>1.030155067894737</v>
       </c>
       <c r="G19">
-        <v>1.005783905503983</v>
+        <v>1.021067498421053</v>
       </c>
       <c r="H19">
-        <v>0.9965915204909385</v>
+        <v>0.9506081805263159</v>
       </c>
       <c r="I19">
-        <v>1.001490713652553</v>
+        <v>1.087502249473684</v>
       </c>
       <c r="J19">
-        <v>0.9944876538330215</v>
+        <v>0.9989846957894736</v>
       </c>
       <c r="K19">
-        <v>1.000039631639551</v>
+        <v>0.9989846957894736</v>
       </c>
       <c r="L19">
-        <v>1.002087864800882</v>
+        <v>1.030155067894737</v>
       </c>
       <c r="M19">
-        <v>0.9982877593169519</v>
+        <v>0.97731982</v>
       </c>
       <c r="N19">
-        <v>0.9982877593169519</v>
+        <v>0.97731982</v>
       </c>
       <c r="O19">
-        <v>0.9977223463749474</v>
+        <v>0.9684159401754386</v>
       </c>
       <c r="P19">
-        <v>0.9988717167578184</v>
+        <v>0.9845414452631579</v>
       </c>
       <c r="Q19">
-        <v>0.9988717167578184</v>
+        <v>0.9845414452631579</v>
       </c>
       <c r="R19">
-        <v>0.9991636954782517</v>
+        <v>0.9881522578947368</v>
       </c>
       <c r="S19">
-        <v>0.9991636954782517</v>
+        <v>0.9881522578947368</v>
       </c>
       <c r="T19">
-        <v>1.000080214986822</v>
+        <v>1.002133710701754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.904335912631579</v>
+      </c>
+      <c r="D20">
+        <v>1.029180772105263</v>
+      </c>
+      <c r="E20">
+        <v>0.904335912631579</v>
+      </c>
+      <c r="F20">
+        <v>1.020864081578947</v>
+      </c>
+      <c r="G20">
+        <v>1.023288769473684</v>
+      </c>
+      <c r="H20">
+        <v>0.9496753215789474</v>
+      </c>
+      <c r="I20">
+        <v>1.053399895789473</v>
+      </c>
+      <c r="J20">
+        <v>1.029180772105263</v>
+      </c>
+      <c r="K20">
+        <v>1.029180772105263</v>
+      </c>
+      <c r="L20">
+        <v>1.020864081578947</v>
+      </c>
+      <c r="M20">
+        <v>0.9625999971052632</v>
+      </c>
+      <c r="N20">
+        <v>0.9625999971052632</v>
+      </c>
+      <c r="O20">
+        <v>0.9582917719298246</v>
+      </c>
+      <c r="P20">
+        <v>0.98479358877193</v>
+      </c>
+      <c r="Q20">
+        <v>0.98479358877193</v>
+      </c>
+      <c r="R20">
+        <v>0.9958903846052634</v>
+      </c>
+      <c r="S20">
+        <v>0.9958903846052634</v>
+      </c>
+      <c r="T20">
+        <v>0.9967907921929825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.060026633002089</v>
+      </c>
+      <c r="D21">
+        <v>0.9998628949171429</v>
+      </c>
+      <c r="E21">
+        <v>1.060026633002089</v>
+      </c>
+      <c r="F21">
+        <v>0.9767934461358041</v>
+      </c>
+      <c r="G21">
+        <v>0.9835192342156879</v>
+      </c>
+      <c r="H21">
+        <v>1.038178046160238</v>
+      </c>
+      <c r="I21">
+        <v>0.9340352275256499</v>
+      </c>
+      <c r="J21">
+        <v>0.9998628949171429</v>
+      </c>
+      <c r="K21">
+        <v>0.9998628949171429</v>
+      </c>
+      <c r="L21">
+        <v>0.9767934461358041</v>
+      </c>
+      <c r="M21">
+        <v>1.018410039568947</v>
+      </c>
+      <c r="N21">
+        <v>1.018410039568947</v>
+      </c>
+      <c r="O21">
+        <v>1.024999375099377</v>
+      </c>
+      <c r="P21">
+        <v>1.012227658018345</v>
+      </c>
+      <c r="Q21">
+        <v>1.012227658018345</v>
+      </c>
+      <c r="R21">
+        <v>1.009136467243045</v>
+      </c>
+      <c r="S21">
+        <v>1.009136467243045</v>
+      </c>
+      <c r="T21">
+        <v>0.9987359136594351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.022535188399311</v>
+      </c>
+      <c r="D22">
+        <v>0.9878789340584816</v>
+      </c>
+      <c r="E22">
+        <v>1.022535188399311</v>
+      </c>
+      <c r="F22">
+        <v>0.9978965161556439</v>
+      </c>
+      <c r="G22">
+        <v>0.9949759350777625</v>
+      </c>
+      <c r="H22">
+        <v>1.010288264478402</v>
+      </c>
+      <c r="I22">
+        <v>0.9959196290067973</v>
+      </c>
+      <c r="J22">
+        <v>0.9878789340584816</v>
+      </c>
+      <c r="K22">
+        <v>0.9878789340584816</v>
+      </c>
+      <c r="L22">
+        <v>0.9978965161556439</v>
+      </c>
+      <c r="M22">
+        <v>1.010215852277477</v>
+      </c>
+      <c r="N22">
+        <v>1.010215852277477</v>
+      </c>
+      <c r="O22">
+        <v>1.010239989677786</v>
+      </c>
+      <c r="P22">
+        <v>1.002770212871145</v>
+      </c>
+      <c r="Q22">
+        <v>1.002770212871145</v>
+      </c>
+      <c r="R22">
+        <v>0.9990473931679794</v>
+      </c>
+      <c r="S22">
+        <v>0.9990473931679794</v>
+      </c>
+      <c r="T22">
+        <v>1.001582411196067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.059173030296684</v>
+      </c>
+      <c r="D23">
+        <v>1.000686663871969</v>
+      </c>
+      <c r="E23">
+        <v>1.059173030296684</v>
+      </c>
+      <c r="F23">
+        <v>0.9765893042771374</v>
+      </c>
+      <c r="G23">
+        <v>0.9836147814619969</v>
+      </c>
+      <c r="H23">
+        <v>1.038172310394908</v>
+      </c>
+      <c r="I23">
+        <v>0.9328916008252881</v>
+      </c>
+      <c r="J23">
+        <v>1.000686663871969</v>
+      </c>
+      <c r="K23">
+        <v>1.000686663871969</v>
+      </c>
+      <c r="L23">
+        <v>0.9765893042771374</v>
+      </c>
+      <c r="M23">
+        <v>1.017881167286911</v>
+      </c>
+      <c r="N23">
+        <v>1.017881167286911</v>
+      </c>
+      <c r="O23">
+        <v>1.024644881656243</v>
+      </c>
+      <c r="P23">
+        <v>1.012149666148597</v>
+      </c>
+      <c r="Q23">
+        <v>1.012149666148597</v>
+      </c>
+      <c r="R23">
+        <v>1.00928391557944</v>
+      </c>
+      <c r="S23">
+        <v>1.00928391557944</v>
+      </c>
+      <c r="T23">
+        <v>0.9985212818546639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.023103666218639</v>
+      </c>
+      <c r="D24">
+        <v>0.9876535683794688</v>
+      </c>
+      <c r="E24">
+        <v>1.023103666218639</v>
+      </c>
+      <c r="F24">
+        <v>0.9978964642106938</v>
+      </c>
+      <c r="G24">
+        <v>0.9949101964589003</v>
+      </c>
+      <c r="H24">
+        <v>1.01027290884233</v>
+      </c>
+      <c r="I24">
+        <v>0.996455216451657</v>
+      </c>
+      <c r="J24">
+        <v>0.9876535683794688</v>
+      </c>
+      <c r="K24">
+        <v>0.9876535683794688</v>
+      </c>
+      <c r="L24">
+        <v>0.9978964642106938</v>
+      </c>
+      <c r="M24">
+        <v>1.010500065214667</v>
+      </c>
+      <c r="N24">
+        <v>1.010500065214667</v>
+      </c>
+      <c r="O24">
+        <v>1.010424346423888</v>
+      </c>
+      <c r="P24">
+        <v>1.002884566269601</v>
+      </c>
+      <c r="Q24">
+        <v>1.002884566269601</v>
+      </c>
+      <c r="R24">
+        <v>0.9990768167970676</v>
+      </c>
+      <c r="S24">
+        <v>0.9990768167970676</v>
+      </c>
+      <c r="T24">
+        <v>1.001715336760282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.058322136234844</v>
+      </c>
+      <c r="D25">
+        <v>1.001508852240478</v>
+      </c>
+      <c r="E25">
+        <v>1.058322136234844</v>
+      </c>
+      <c r="F25">
+        <v>0.9763849583920547</v>
+      </c>
+      <c r="G25">
+        <v>0.9837097139983068</v>
+      </c>
+      <c r="H25">
+        <v>1.038167815367373</v>
+      </c>
+      <c r="I25">
+        <v>0.9317475675234723</v>
+      </c>
+      <c r="J25">
+        <v>1.001508852240478</v>
+      </c>
+      <c r="K25">
+        <v>1.001508852240478</v>
+      </c>
+      <c r="L25">
+        <v>0.9763849583920547</v>
+      </c>
+      <c r="M25">
+        <v>1.017353547313449</v>
+      </c>
+      <c r="N25">
+        <v>1.017353547313449</v>
+      </c>
+      <c r="O25">
+        <v>1.024291636664757</v>
+      </c>
+      <c r="P25">
+        <v>1.012071982289126</v>
+      </c>
+      <c r="Q25">
+        <v>1.012071982289126</v>
+      </c>
+      <c r="R25">
+        <v>1.009431199776964</v>
+      </c>
+      <c r="S25">
+        <v>1.009431199776964</v>
+      </c>
+      <c r="T25">
+        <v>0.9983068406260882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.023672582284647</v>
+      </c>
+      <c r="D26">
+        <v>0.9874285277921441</v>
+      </c>
+      <c r="E26">
+        <v>1.023672582284647</v>
+      </c>
+      <c r="F26">
+        <v>0.9978960970860877</v>
+      </c>
+      <c r="G26">
+        <v>0.994844332912863</v>
+      </c>
+      <c r="H26">
+        <v>1.010257851417492</v>
+      </c>
+      <c r="I26">
+        <v>0.9969900026134219</v>
+      </c>
+      <c r="J26">
+        <v>0.9874285277921441</v>
+      </c>
+      <c r="K26">
+        <v>0.9874285277921441</v>
+      </c>
+      <c r="L26">
+        <v>0.9978960970860877</v>
+      </c>
+      <c r="M26">
+        <v>1.010784339685368</v>
+      </c>
+      <c r="N26">
+        <v>1.010784339685368</v>
+      </c>
+      <c r="O26">
+        <v>1.010608843596076</v>
+      </c>
+      <c r="P26">
+        <v>1.002999069054293</v>
+      </c>
+      <c r="Q26">
+        <v>1.002999069054293</v>
+      </c>
+      <c r="R26">
+        <v>0.9991064337387557</v>
+      </c>
+      <c r="S26">
+        <v>0.9991064337387557</v>
+      </c>
+      <c r="T26">
+        <v>1.001848232351109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9664732334481984</v>
+      </c>
+      <c r="D27">
+        <v>1.009641967086794</v>
+      </c>
+      <c r="E27">
+        <v>0.9664732334481984</v>
+      </c>
+      <c r="F27">
+        <v>1.007580147392773</v>
+      </c>
+      <c r="G27">
+        <v>1.00818125248673</v>
+      </c>
+      <c r="H27">
+        <v>0.9823293362665839</v>
+      </c>
+      <c r="I27">
+        <v>1.019299590383725</v>
+      </c>
+      <c r="J27">
+        <v>1.009641967086794</v>
+      </c>
+      <c r="K27">
+        <v>1.009641967086794</v>
+      </c>
+      <c r="L27">
+        <v>1.007580147392773</v>
+      </c>
+      <c r="M27">
+        <v>0.9870266904204859</v>
+      </c>
+      <c r="N27">
+        <v>0.9870266904204859</v>
+      </c>
+      <c r="O27">
+        <v>0.9854609057025185</v>
+      </c>
+      <c r="P27">
+        <v>0.9945651159759218</v>
+      </c>
+      <c r="Q27">
+        <v>0.9945651159759216</v>
+      </c>
+      <c r="R27">
+        <v>0.9983343287536396</v>
+      </c>
+      <c r="S27">
+        <v>0.9983343287536396</v>
+      </c>
+      <c r="T27">
+        <v>0.998917587844134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.004366018022624</v>
+      </c>
+      <c r="D28">
+        <v>0.9998427642715012</v>
+      </c>
+      <c r="E28">
+        <v>1.004366018022624</v>
+      </c>
+      <c r="F28">
+        <v>0.9982913481131679</v>
+      </c>
+      <c r="G28">
+        <v>0.9987436622534801</v>
+      </c>
+      <c r="H28">
+        <v>1.003042781811578</v>
+      </c>
+      <c r="I28">
+        <v>0.9946435605007281</v>
+      </c>
+      <c r="J28">
+        <v>0.9998427642715012</v>
+      </c>
+      <c r="K28">
+        <v>0.9998427642715012</v>
+      </c>
+      <c r="L28">
+        <v>0.9982913481131679</v>
+      </c>
+      <c r="M28">
+        <v>1.001328683067896</v>
+      </c>
+      <c r="N28">
+        <v>1.001328683067896</v>
+      </c>
+      <c r="O28">
+        <v>1.00190004931579</v>
+      </c>
+      <c r="P28">
+        <v>1.000833376802431</v>
+      </c>
+      <c r="Q28">
+        <v>1.000833376802431</v>
+      </c>
+      <c r="R28">
+        <v>1.000585723669698</v>
+      </c>
+      <c r="S28">
+        <v>1.000585723669698</v>
+      </c>
+      <c r="T28">
+        <v>0.9998216891621797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.10398746778623</v>
+      </c>
+      <c r="D29">
+        <v>0.9757702402422944</v>
+      </c>
+      <c r="E29">
+        <v>1.10398746778623</v>
+      </c>
+      <c r="F29">
+        <v>0.9733593318942846</v>
+      </c>
+      <c r="G29">
+        <v>0.9740622323429464</v>
+      </c>
+      <c r="H29">
+        <v>1.056778150388713</v>
+      </c>
+      <c r="I29">
+        <v>0.93023692249816</v>
+      </c>
+      <c r="J29">
+        <v>0.9757702402422944</v>
+      </c>
+      <c r="K29">
+        <v>0.9757702402422944</v>
+      </c>
+      <c r="L29">
+        <v>0.9733593318942846</v>
+      </c>
+      <c r="M29">
+        <v>1.038673399840257</v>
+      </c>
+      <c r="N29">
+        <v>1.038673399840257</v>
+      </c>
+      <c r="O29">
+        <v>1.044708316689743</v>
+      </c>
+      <c r="P29">
+        <v>1.01770567997427</v>
+      </c>
+      <c r="Q29">
+        <v>1.01770567997427</v>
+      </c>
+      <c r="R29">
+        <v>1.007221820041276</v>
+      </c>
+      <c r="S29">
+        <v>1.007221820041276</v>
+      </c>
+      <c r="T29">
+        <v>1.002365724192105</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9727521770788741</v>
+        <v>0.9283453847567166</v>
       </c>
       <c r="D4">
-        <v>1.00451391354279</v>
+        <v>1.011168748892794</v>
       </c>
       <c r="E4">
-        <v>0.9727521770788741</v>
+        <v>0.9283453847567166</v>
       </c>
       <c r="F4">
-        <v>1.008054877819295</v>
+        <v>1.021694309866923</v>
       </c>
       <c r="G4">
-        <v>1.007022527285734</v>
+        <v>1.018625634874417</v>
       </c>
       <c r="H4">
-        <v>0.9842914272502238</v>
+        <v>0.9580576387156438</v>
       </c>
       <c r="I4">
-        <v>1.021980493675444</v>
+        <v>1.060028576728711</v>
       </c>
       <c r="J4">
-        <v>1.00451391354279</v>
+        <v>1.011168748892794</v>
       </c>
       <c r="K4">
-        <v>1.00451391354279</v>
+        <v>1.011168748892794</v>
       </c>
       <c r="L4">
-        <v>1.008054877819295</v>
+        <v>1.021694309866923</v>
       </c>
       <c r="M4">
-        <v>0.9904035274490848</v>
+        <v>0.9750198473118197</v>
       </c>
       <c r="N4">
-        <v>0.9904035274490848</v>
+        <v>0.9750198473118197</v>
       </c>
       <c r="O4">
-        <v>0.9883661607161311</v>
+        <v>0.969365777779761</v>
       </c>
       <c r="P4">
-        <v>0.9951069894803197</v>
+        <v>0.9870694811721443</v>
       </c>
       <c r="Q4">
-        <v>0.9951069894803197</v>
+        <v>0.9870694811721442</v>
       </c>
       <c r="R4">
-        <v>0.9974587204959373</v>
+        <v>0.9930942981023065</v>
       </c>
       <c r="S4">
-        <v>0.9974587204959373</v>
+        <v>0.9930942981023065</v>
       </c>
       <c r="T4">
-        <v>0.9997692361087268</v>
+        <v>0.9996533823058673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9139801389049</v>
+        <v>0.9392084920655477</v>
       </c>
       <c r="D5">
-        <v>1.014320288162819</v>
+        <v>1.024619394198223</v>
       </c>
       <c r="E5">
-        <v>0.9139801389049</v>
+        <v>0.9392084920655477</v>
       </c>
       <c r="F5">
-        <v>1.025542767168586</v>
+        <v>1.009765813781591</v>
       </c>
       <c r="G5">
-        <v>1.022270910518734</v>
+        <v>1.014096298488609</v>
       </c>
       <c r="H5">
-        <v>0.9499585332708916</v>
+        <v>0.9705719205529828</v>
       </c>
       <c r="I5">
-        <v>1.070489854668589</v>
+        <v>1.022195227994156</v>
       </c>
       <c r="J5">
-        <v>1.014320288162819</v>
+        <v>1.024619394198223</v>
       </c>
       <c r="K5">
-        <v>1.014320288162819</v>
+        <v>1.024619394198223</v>
       </c>
       <c r="L5">
-        <v>1.025542767168586</v>
+        <v>1.009765813781591</v>
       </c>
       <c r="M5">
-        <v>0.9697614530367428</v>
+        <v>0.9744871529235692</v>
       </c>
       <c r="N5">
-        <v>0.9697614530367428</v>
+        <v>0.9744871529235692</v>
       </c>
       <c r="O5">
-        <v>0.9631604797814591</v>
+        <v>0.9731820754667071</v>
       </c>
       <c r="P5">
-        <v>0.9846143980787682</v>
+        <v>0.9911979000151204</v>
       </c>
       <c r="Q5">
-        <v>0.9846143980787682</v>
+        <v>0.9911979000151204</v>
       </c>
       <c r="R5">
-        <v>0.9920408705997809</v>
+        <v>0.9995532735608961</v>
       </c>
       <c r="S5">
-        <v>0.9920408705997809</v>
+        <v>0.9995532735608961</v>
       </c>
       <c r="T5">
-        <v>0.9994270821157532</v>
+        <v>0.9967428578468516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7207783439175101</v>
+        <v>0.9727521770788741</v>
       </c>
       <c r="D6">
-        <v>1.033536689761916</v>
+        <v>1.00451391354279</v>
       </c>
       <c r="E6">
-        <v>0.7207783439175101</v>
+        <v>0.9727521770788741</v>
       </c>
       <c r="F6">
-        <v>1.09020409329322</v>
+        <v>1.008054877819295</v>
       </c>
       <c r="G6">
-        <v>1.073683011327321</v>
+        <v>1.007022527285734</v>
       </c>
       <c r="H6">
-        <v>0.832595627164289</v>
+        <v>0.9842914272502238</v>
       </c>
       <c r="I6">
-        <v>1.252620689675771</v>
+        <v>1.021980493675444</v>
       </c>
       <c r="J6">
-        <v>1.033536689761916</v>
+        <v>1.00451391354279</v>
       </c>
       <c r="K6">
-        <v>1.033536689761916</v>
+        <v>1.00451391354279</v>
       </c>
       <c r="L6">
-        <v>1.09020409329322</v>
+        <v>1.008054877819295</v>
       </c>
       <c r="M6">
-        <v>0.9054912186053652</v>
+        <v>0.9904035274490848</v>
       </c>
       <c r="N6">
-        <v>0.9054912186053652</v>
+        <v>0.9904035274490848</v>
       </c>
       <c r="O6">
-        <v>0.8811926881250064</v>
+        <v>0.9883661607161311</v>
       </c>
       <c r="P6">
-        <v>0.9481730423242155</v>
+        <v>0.9951069894803197</v>
       </c>
       <c r="Q6">
-        <v>0.9481730423242155</v>
+        <v>0.9951069894803197</v>
       </c>
       <c r="R6">
-        <v>0.9695139541836407</v>
+        <v>0.9974587204959373</v>
       </c>
       <c r="S6">
-        <v>0.9695139541836407</v>
+        <v>0.9974587204959373</v>
       </c>
       <c r="T6">
-        <v>1.000569742523338</v>
+        <v>0.9997692361087268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9898021271116936</v>
+        <v>0.9139801389049</v>
       </c>
       <c r="D7">
-        <v>1.003482409233177</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="E7">
-        <v>0.9898021271116936</v>
+        <v>0.9139801389049</v>
       </c>
       <c r="F7">
-        <v>1.002036391126399</v>
+        <v>1.025542767168586</v>
       </c>
       <c r="G7">
-        <v>1.002457972335098</v>
+        <v>1.022270910518734</v>
       </c>
       <c r="H7">
-        <v>0.9947107761490168</v>
+        <v>0.9499585332708916</v>
       </c>
       <c r="I7">
-        <v>1.005181815265217</v>
+        <v>1.070489854668589</v>
       </c>
       <c r="J7">
-        <v>1.003482409233177</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="K7">
-        <v>1.003482409233177</v>
+        <v>1.014320288162819</v>
       </c>
       <c r="L7">
-        <v>1.002036391126399</v>
+        <v>1.025542767168586</v>
       </c>
       <c r="M7">
-        <v>0.995919259119046</v>
+        <v>0.9697614530367428</v>
       </c>
       <c r="N7">
-        <v>0.995919259119046</v>
+        <v>0.9697614530367428</v>
       </c>
       <c r="O7">
-        <v>0.9955164314623696</v>
+        <v>0.9631604797814591</v>
       </c>
       <c r="P7">
-        <v>0.9984403091570897</v>
+        <v>0.9846143980787682</v>
       </c>
       <c r="Q7">
-        <v>0.9984403091570897</v>
+        <v>0.9846143980787682</v>
       </c>
       <c r="R7">
-        <v>0.9997008341761116</v>
+        <v>0.9920408705997809</v>
       </c>
       <c r="S7">
-        <v>0.9997008341761116</v>
+        <v>0.9920408705997809</v>
       </c>
       <c r="T7">
-        <v>0.9996119152034336</v>
+        <v>0.9994270821157532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9990886980631006</v>
+        <v>0.7207783439175101</v>
       </c>
       <c r="D8">
-        <v>1.000462004651245</v>
+        <v>1.033536689761916</v>
       </c>
       <c r="E8">
-        <v>0.9990886980631006</v>
+        <v>0.7207783439175101</v>
       </c>
       <c r="F8">
-        <v>1.00010220589827</v>
+        <v>1.09020409329322</v>
       </c>
       <c r="G8">
-        <v>1.000207104688598</v>
+        <v>1.073683011327321</v>
       </c>
       <c r="H8">
-        <v>0.9995691493043939</v>
+        <v>0.832595627164289</v>
       </c>
       <c r="I8">
-        <v>1.000227061334568</v>
+        <v>1.252620689675771</v>
       </c>
       <c r="J8">
-        <v>1.000462004651245</v>
+        <v>1.033536689761916</v>
       </c>
       <c r="K8">
-        <v>1.000462004651245</v>
+        <v>1.033536689761916</v>
       </c>
       <c r="L8">
-        <v>1.00010220589827</v>
+        <v>1.09020409329322</v>
       </c>
       <c r="M8">
-        <v>0.9995954519806853</v>
+        <v>0.9054912186053652</v>
       </c>
       <c r="N8">
-        <v>0.9995954519806853</v>
+        <v>0.9054912186053652</v>
       </c>
       <c r="O8">
-        <v>0.9995866844219216</v>
+        <v>0.8811926881250064</v>
       </c>
       <c r="P8">
-        <v>0.999884302870872</v>
+        <v>0.9481730423242155</v>
       </c>
       <c r="Q8">
-        <v>0.999884302870872</v>
+        <v>0.9481730423242155</v>
       </c>
       <c r="R8">
-        <v>1.000028728315965</v>
+        <v>0.9695139541836407</v>
       </c>
       <c r="S8">
-        <v>1.000028728315965</v>
+        <v>0.9695139541836407</v>
       </c>
       <c r="T8">
-        <v>0.9999427039900294</v>
+        <v>1.000569742523338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9819705528289223</v>
+        <v>0.9898021271116936</v>
       </c>
       <c r="D9">
-        <v>1.006170569503168</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="E9">
-        <v>0.9819705528289223</v>
+        <v>0.9898021271116936</v>
       </c>
       <c r="F9">
-        <v>1.003594773525874</v>
+        <v>1.002036391126399</v>
       </c>
       <c r="G9">
-        <v>1.004345737344496</v>
+        <v>1.002457972335098</v>
       </c>
       <c r="H9">
-        <v>0.9906470399478813</v>
+        <v>0.9947107761490168</v>
       </c>
       <c r="I9">
-        <v>1.009154166336192</v>
+        <v>1.005181815265217</v>
       </c>
       <c r="J9">
-        <v>1.006170569503168</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="K9">
-        <v>1.006170569503168</v>
+        <v>1.003482409233177</v>
       </c>
       <c r="L9">
-        <v>1.003594773525874</v>
+        <v>1.002036391126399</v>
       </c>
       <c r="M9">
-        <v>0.9927826631773982</v>
+        <v>0.995919259119046</v>
       </c>
       <c r="N9">
-        <v>0.9927826631773982</v>
+        <v>0.995919259119046</v>
       </c>
       <c r="O9">
-        <v>0.9920707887675592</v>
+        <v>0.9955164314623696</v>
       </c>
       <c r="P9">
-        <v>0.9972452986193213</v>
+        <v>0.9984403091570897</v>
       </c>
       <c r="Q9">
-        <v>0.9972452986193213</v>
+        <v>0.9984403091570897</v>
       </c>
       <c r="R9">
-        <v>0.999476616340283</v>
+        <v>0.9997008341761116</v>
       </c>
       <c r="S9">
-        <v>0.999476616340283</v>
+        <v>0.9997008341761116</v>
       </c>
       <c r="T9">
-        <v>0.9993138065810889</v>
+        <v>0.9996119152034336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7171003891628713</v>
+        <v>0.9990886980631006</v>
       </c>
       <c r="D10">
-        <v>1.033346350085302</v>
+        <v>1.000462004651245</v>
       </c>
       <c r="E10">
-        <v>0.7171003891628713</v>
+        <v>0.9990886980631006</v>
       </c>
       <c r="F10">
-        <v>1.091755837308426</v>
+        <v>1.00010220589827</v>
       </c>
       <c r="G10">
-        <v>1.074726859271266</v>
+        <v>1.000207104688598</v>
       </c>
       <c r="H10">
-        <v>0.8301244336171402</v>
+        <v>0.9995691493043939</v>
       </c>
       <c r="I10">
-        <v>1.257171152388839</v>
+        <v>1.000227061334568</v>
       </c>
       <c r="J10">
-        <v>1.033346350085302</v>
+        <v>1.000462004651245</v>
       </c>
       <c r="K10">
-        <v>1.033346350085302</v>
+        <v>1.000462004651245</v>
       </c>
       <c r="L10">
-        <v>1.091755837308426</v>
+        <v>1.00010220589827</v>
       </c>
       <c r="M10">
-        <v>0.9044281132356489</v>
+        <v>0.9995954519806853</v>
       </c>
       <c r="N10">
-        <v>0.9044281132356489</v>
+        <v>0.9995954519806853</v>
       </c>
       <c r="O10">
-        <v>0.8796602200294793</v>
+        <v>0.9995866844219216</v>
       </c>
       <c r="P10">
-        <v>0.9474008588521999</v>
+        <v>0.999884302870872</v>
       </c>
       <c r="Q10">
-        <v>0.9474008588521999</v>
+        <v>0.999884302870872</v>
       </c>
       <c r="R10">
-        <v>0.9688872316604754</v>
+        <v>1.000028728315965</v>
       </c>
       <c r="S10">
-        <v>0.9688872316604754</v>
+        <v>1.000028728315965</v>
       </c>
       <c r="T10">
-        <v>1.000704170305641</v>
+        <v>0.9999427039900294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9715183623122309</v>
+        <v>0.9819705528289223</v>
       </c>
       <c r="D11">
-        <v>1.008576319701616</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="E11">
-        <v>0.9715183623122309</v>
+        <v>0.9819705528289223</v>
       </c>
       <c r="F11">
-        <v>1.006249336307223</v>
+        <v>1.003594773525874</v>
       </c>
       <c r="G11">
-        <v>1.006927758871744</v>
+        <v>1.004345737344496</v>
       </c>
       <c r="H11">
-        <v>0.9850527857077779</v>
+        <v>0.9906470399478813</v>
       </c>
       <c r="I11">
-        <v>1.015901634135543</v>
+        <v>1.009154166336192</v>
       </c>
       <c r="J11">
-        <v>1.008576319701616</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="K11">
-        <v>1.008576319701616</v>
+        <v>1.006170569503168</v>
       </c>
       <c r="L11">
-        <v>1.006249336307223</v>
+        <v>1.003594773525874</v>
       </c>
       <c r="M11">
-        <v>0.9888838493097272</v>
+        <v>0.9927826631773982</v>
       </c>
       <c r="N11">
-        <v>0.9888838493097272</v>
+        <v>0.9927826631773982</v>
       </c>
       <c r="O11">
-        <v>0.9876068281090774</v>
+        <v>0.9920707887675592</v>
       </c>
       <c r="P11">
-        <v>0.9954480061070236</v>
+        <v>0.9972452986193213</v>
       </c>
       <c r="Q11">
-        <v>0.9954480061070234</v>
+        <v>0.9972452986193213</v>
       </c>
       <c r="R11">
-        <v>0.9987300845056717</v>
+        <v>0.999476616340283</v>
       </c>
       <c r="S11">
-        <v>0.9987300845056717</v>
+        <v>0.999476616340283</v>
       </c>
       <c r="T11">
-        <v>0.9990376995060224</v>
+        <v>0.9993138065810889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9152291794000004</v>
+        <v>0.7171003891628713</v>
       </c>
       <c r="D12">
-        <v>1.009763615947367</v>
+        <v>1.033346350085302</v>
       </c>
       <c r="E12">
-        <v>0.9152291794000004</v>
+        <v>0.7171003891628713</v>
       </c>
       <c r="F12">
-        <v>1.027615951842106</v>
+        <v>1.091755837308426</v>
       </c>
       <c r="G12">
-        <v>1.022411192421054</v>
+        <v>1.074726859271266</v>
       </c>
       <c r="H12">
-        <v>0.9490321792736824</v>
+        <v>0.8301244336171402</v>
       </c>
       <c r="I12">
-        <v>1.077422274873685</v>
+        <v>1.257171152388839</v>
       </c>
       <c r="J12">
-        <v>1.009763615947367</v>
+        <v>1.033346350085302</v>
       </c>
       <c r="K12">
-        <v>1.009763615947367</v>
+        <v>1.033346350085302</v>
       </c>
       <c r="L12">
-        <v>1.027615951842106</v>
+        <v>1.091755837308426</v>
       </c>
       <c r="M12">
-        <v>0.9714225656210531</v>
+        <v>0.9044281132356489</v>
       </c>
       <c r="N12">
-        <v>0.9714225656210531</v>
+        <v>0.9044281132356489</v>
       </c>
       <c r="O12">
-        <v>0.9639591035052629</v>
+        <v>0.8796602200294793</v>
       </c>
       <c r="P12">
-        <v>0.9842029157298242</v>
+        <v>0.9474008588521999</v>
       </c>
       <c r="Q12">
-        <v>0.9842029157298243</v>
+        <v>0.9474008588521999</v>
       </c>
       <c r="R12">
-        <v>0.99059309078421</v>
+        <v>0.9688872316604754</v>
       </c>
       <c r="S12">
-        <v>0.99059309078421</v>
+        <v>0.9688872316604754</v>
       </c>
       <c r="T12">
-        <v>1.000245732292983</v>
+        <v>1.000704170305641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.060658054358511</v>
+        <v>0.9715183623122309</v>
       </c>
       <c r="D13">
-        <v>0.9859644083136881</v>
+        <v>1.008576319701616</v>
       </c>
       <c r="E13">
-        <v>1.060658054358511</v>
+        <v>0.9715183623122309</v>
       </c>
       <c r="F13">
-        <v>0.9842495490768516</v>
+        <v>1.006249336307223</v>
       </c>
       <c r="G13">
-        <v>0.9847495078716771</v>
+        <v>1.006927758871744</v>
       </c>
       <c r="H13">
-        <v>1.033640069086289</v>
+        <v>0.9850527857077779</v>
       </c>
       <c r="I13">
-        <v>0.957884237761884</v>
+        <v>1.015901634135543</v>
       </c>
       <c r="J13">
-        <v>0.9859644083136881</v>
+        <v>1.008576319701616</v>
       </c>
       <c r="K13">
-        <v>0.9859644083136881</v>
+        <v>1.008576319701616</v>
       </c>
       <c r="L13">
-        <v>0.9842495490768516</v>
+        <v>1.006249336307223</v>
       </c>
       <c r="M13">
-        <v>1.022453801717681</v>
+        <v>0.9888838493097272</v>
       </c>
       <c r="N13">
-        <v>1.022453801717681</v>
+        <v>0.9888838493097272</v>
       </c>
       <c r="O13">
-        <v>1.026182557507217</v>
+        <v>0.9876068281090774</v>
       </c>
       <c r="P13">
-        <v>1.010290670583017</v>
+        <v>0.9954480061070236</v>
       </c>
       <c r="Q13">
-        <v>1.010290670583017</v>
+        <v>0.9954480061070234</v>
       </c>
       <c r="R13">
-        <v>1.004209105015685</v>
+        <v>0.9987300845056717</v>
       </c>
       <c r="S13">
-        <v>1.004209105015685</v>
+        <v>0.9987300845056717</v>
       </c>
       <c r="T13">
-        <v>1.00119097107815</v>
+        <v>0.9990376995060224</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5123396</v>
+        <v>0.9152291794000004</v>
       </c>
       <c r="D14">
-        <v>1.055856</v>
+        <v>1.009763615947367</v>
       </c>
       <c r="E14">
-        <v>0.5123396</v>
+        <v>0.9152291794000004</v>
       </c>
       <c r="F14">
-        <v>1.159078600000001</v>
+        <v>1.027615951842106</v>
       </c>
       <c r="G14">
-        <v>1.1289846</v>
+        <v>1.022411192421054</v>
       </c>
       <c r="H14">
-        <v>0.7065622300000008</v>
+        <v>0.9490321792736824</v>
       </c>
       <c r="I14">
-        <v>1.446257500000001</v>
+        <v>1.077422274873685</v>
       </c>
       <c r="J14">
-        <v>1.055856</v>
+        <v>1.009763615947367</v>
       </c>
       <c r="K14">
-        <v>1.055856</v>
+        <v>1.009763615947367</v>
       </c>
       <c r="L14">
-        <v>1.159078600000001</v>
+        <v>1.027615951842106</v>
       </c>
       <c r="M14">
-        <v>0.8357091000000003</v>
+        <v>0.9714225656210531</v>
       </c>
       <c r="N14">
-        <v>0.8357091000000003</v>
+        <v>0.9714225656210531</v>
       </c>
       <c r="O14">
-        <v>0.7926601433333338</v>
+        <v>0.9639591035052629</v>
       </c>
       <c r="P14">
-        <v>0.9090914000000003</v>
+        <v>0.9842029157298242</v>
       </c>
       <c r="Q14">
-        <v>0.9090914000000003</v>
+        <v>0.9842029157298243</v>
       </c>
       <c r="R14">
-        <v>0.9457825500000003</v>
+        <v>0.99059309078421</v>
       </c>
       <c r="S14">
-        <v>0.9457825500000003</v>
+        <v>0.99059309078421</v>
       </c>
       <c r="T14">
-        <v>1.001513088333334</v>
+        <v>1.000245732292983</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7563714999999999</v>
+        <v>1.060658054358511</v>
       </c>
       <c r="D15">
-        <v>1.1248129</v>
+        <v>0.9859644083136881</v>
       </c>
       <c r="E15">
-        <v>0.7563714999999999</v>
+        <v>1.060658054358511</v>
       </c>
       <c r="F15">
-        <v>1.0262848</v>
+        <v>0.9842495490768516</v>
       </c>
       <c r="G15">
-        <v>1.0550102</v>
+        <v>0.9847495078716771</v>
       </c>
       <c r="H15">
-        <v>0.88627042</v>
+        <v>1.033640069086289</v>
       </c>
       <c r="I15">
-        <v>1.055856</v>
+        <v>0.957884237761884</v>
       </c>
       <c r="J15">
-        <v>1.1248129</v>
+        <v>0.9859644083136881</v>
       </c>
       <c r="K15">
-        <v>1.1248129</v>
+        <v>0.9859644083136881</v>
       </c>
       <c r="L15">
-        <v>1.0262848</v>
+        <v>0.9842495490768516</v>
       </c>
       <c r="M15">
-        <v>0.8913281499999999</v>
+        <v>1.022453801717681</v>
       </c>
       <c r="N15">
-        <v>0.8913281499999999</v>
+        <v>1.022453801717681</v>
       </c>
       <c r="O15">
-        <v>0.88964224</v>
+        <v>1.026182557507217</v>
       </c>
       <c r="P15">
-        <v>0.9691563999999998</v>
+        <v>1.010290670583017</v>
       </c>
       <c r="Q15">
-        <v>0.9691564</v>
+        <v>1.010290670583017</v>
       </c>
       <c r="R15">
-        <v>1.008070525</v>
+        <v>1.004209105015685</v>
       </c>
       <c r="S15">
-        <v>1.008070525</v>
+        <v>1.004209105015685</v>
       </c>
       <c r="T15">
-        <v>0.9841009700000001</v>
+        <v>1.00119097107815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.81027012</v>
+        <v>0.5123396</v>
       </c>
       <c r="D16">
-        <v>1.0262828</v>
+        <v>1.055856</v>
       </c>
       <c r="E16">
-        <v>0.81027012</v>
+        <v>0.5123396</v>
       </c>
       <c r="F16">
-        <v>1.0585551</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="G16">
-        <v>1.0491463</v>
+        <v>1.1289846</v>
       </c>
       <c r="H16">
-        <v>0.88998546</v>
+        <v>0.7065622300000008</v>
       </c>
       <c r="I16">
-        <v>1.1590686</v>
+        <v>1.446257500000001</v>
       </c>
       <c r="J16">
-        <v>1.0262828</v>
+        <v>1.055856</v>
       </c>
       <c r="K16">
-        <v>1.0262828</v>
+        <v>1.055856</v>
       </c>
       <c r="L16">
-        <v>1.0585551</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="M16">
-        <v>0.93441261</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="N16">
-        <v>0.93441261</v>
+        <v>0.8357091000000003</v>
       </c>
       <c r="O16">
-        <v>0.91960356</v>
+        <v>0.7926601433333338</v>
       </c>
       <c r="P16">
-        <v>0.9650360066666667</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="Q16">
-        <v>0.9650360066666667</v>
+        <v>0.9090914000000003</v>
       </c>
       <c r="R16">
-        <v>0.980347705</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="S16">
-        <v>0.980347705</v>
+        <v>0.9457825500000003</v>
       </c>
       <c r="T16">
-        <v>0.99888473</v>
+        <v>1.001513088333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.186603</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="D17">
-        <v>0.91677712</v>
+        <v>1.1248129</v>
       </c>
       <c r="E17">
-        <v>1.186603</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="F17">
-        <v>0.97450774</v>
+        <v>1.0262848</v>
       </c>
       <c r="G17">
-        <v>0.95767666</v>
+        <v>1.0550102</v>
       </c>
       <c r="H17">
-        <v>1.086851</v>
+        <v>0.88627042</v>
       </c>
       <c r="I17">
-        <v>0.9473402399999999</v>
+        <v>1.055856</v>
       </c>
       <c r="J17">
-        <v>0.91677712</v>
+        <v>1.1248129</v>
       </c>
       <c r="K17">
-        <v>0.91677712</v>
+        <v>1.1248129</v>
       </c>
       <c r="L17">
-        <v>0.97450774</v>
+        <v>1.0262848</v>
       </c>
       <c r="M17">
-        <v>1.08055537</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N17">
-        <v>1.08055537</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O17">
-        <v>1.082653913333333</v>
+        <v>0.88964224</v>
       </c>
       <c r="P17">
-        <v>1.02596262</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q17">
-        <v>1.02596262</v>
+        <v>0.9691564</v>
       </c>
       <c r="R17">
-        <v>0.998666245</v>
+        <v>1.008070525</v>
       </c>
       <c r="S17">
-        <v>0.998666245</v>
+        <v>1.008070525</v>
       </c>
       <c r="T17">
-        <v>1.01162596</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7829456884931506</v>
+        <v>0.81027012</v>
       </c>
       <c r="D18">
-        <v>1.07622371369863</v>
+        <v>1.0262828</v>
       </c>
       <c r="E18">
-        <v>0.7829456884931506</v>
+        <v>0.81027012</v>
       </c>
       <c r="F18">
-        <v>1.04220070410959</v>
+        <v>1.0585551</v>
       </c>
       <c r="G18">
-        <v>1.052119956164384</v>
+        <v>1.0491463</v>
       </c>
       <c r="H18">
-        <v>0.8880990024657534</v>
+        <v>0.88998546</v>
       </c>
       <c r="I18">
-        <v>1.10676029589041</v>
+        <v>1.1590686</v>
       </c>
       <c r="J18">
-        <v>1.07622371369863</v>
+        <v>1.0262828</v>
       </c>
       <c r="K18">
-        <v>1.07622371369863</v>
+        <v>1.0262828</v>
       </c>
       <c r="L18">
-        <v>1.04220070410959</v>
+        <v>1.0585551</v>
       </c>
       <c r="M18">
-        <v>0.9125731963013701</v>
+        <v>0.93441261</v>
       </c>
       <c r="N18">
-        <v>0.9125731963013701</v>
+        <v>0.93441261</v>
       </c>
       <c r="O18">
-        <v>0.9044151316894978</v>
+        <v>0.91960356</v>
       </c>
       <c r="P18">
-        <v>0.9671233687671235</v>
+        <v>0.9650360066666667</v>
       </c>
       <c r="Q18">
-        <v>0.9671233687671233</v>
+        <v>0.9650360066666667</v>
       </c>
       <c r="R18">
-        <v>0.994398455</v>
+        <v>0.980347705</v>
       </c>
       <c r="S18">
-        <v>0.994398455</v>
+        <v>0.980347705</v>
       </c>
       <c r="T18">
-        <v>0.9913915601369864</v>
+        <v>0.99888473</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9244845721052631</v>
+        <v>1.186603</v>
       </c>
       <c r="D19">
-        <v>0.9989846957894736</v>
+        <v>0.91677712</v>
       </c>
       <c r="E19">
-        <v>0.9244845721052631</v>
+        <v>1.186603</v>
       </c>
       <c r="F19">
-        <v>1.030155067894737</v>
+        <v>0.97450774</v>
       </c>
       <c r="G19">
-        <v>1.021067498421053</v>
+        <v>0.95767666</v>
       </c>
       <c r="H19">
-        <v>0.9506081805263159</v>
+        <v>1.086851</v>
       </c>
       <c r="I19">
-        <v>1.087502249473684</v>
+        <v>0.9473402399999999</v>
       </c>
       <c r="J19">
-        <v>0.9989846957894736</v>
+        <v>0.91677712</v>
       </c>
       <c r="K19">
-        <v>0.9989846957894736</v>
+        <v>0.91677712</v>
       </c>
       <c r="L19">
-        <v>1.030155067894737</v>
+        <v>0.97450774</v>
       </c>
       <c r="M19">
-        <v>0.97731982</v>
+        <v>1.08055537</v>
       </c>
       <c r="N19">
-        <v>0.97731982</v>
+        <v>1.08055537</v>
       </c>
       <c r="O19">
-        <v>0.9684159401754386</v>
+        <v>1.082653913333333</v>
       </c>
       <c r="P19">
-        <v>0.9845414452631579</v>
+        <v>1.02596262</v>
       </c>
       <c r="Q19">
-        <v>0.9845414452631579</v>
+        <v>1.02596262</v>
       </c>
       <c r="R19">
-        <v>0.9881522578947368</v>
+        <v>0.998666245</v>
       </c>
       <c r="S19">
-        <v>0.9881522578947368</v>
+        <v>0.998666245</v>
       </c>
       <c r="T19">
-        <v>1.002133710701754</v>
+        <v>1.01162596</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.904335912631579</v>
+        <v>0.7829456884931506</v>
       </c>
       <c r="D20">
-        <v>1.029180772105263</v>
+        <v>1.07622371369863</v>
       </c>
       <c r="E20">
-        <v>0.904335912631579</v>
+        <v>0.7829456884931506</v>
       </c>
       <c r="F20">
-        <v>1.020864081578947</v>
+        <v>1.04220070410959</v>
       </c>
       <c r="G20">
-        <v>1.023288769473684</v>
+        <v>1.052119956164384</v>
       </c>
       <c r="H20">
-        <v>0.9496753215789474</v>
+        <v>0.8880990024657534</v>
       </c>
       <c r="I20">
-        <v>1.053399895789473</v>
+        <v>1.10676029589041</v>
       </c>
       <c r="J20">
-        <v>1.029180772105263</v>
+        <v>1.07622371369863</v>
       </c>
       <c r="K20">
-        <v>1.029180772105263</v>
+        <v>1.07622371369863</v>
       </c>
       <c r="L20">
-        <v>1.020864081578947</v>
+        <v>1.04220070410959</v>
       </c>
       <c r="M20">
-        <v>0.9625999971052632</v>
+        <v>0.9125731963013701</v>
       </c>
       <c r="N20">
-        <v>0.9625999971052632</v>
+        <v>0.9125731963013701</v>
       </c>
       <c r="O20">
-        <v>0.9582917719298246</v>
+        <v>0.9044151316894978</v>
       </c>
       <c r="P20">
-        <v>0.98479358877193</v>
+        <v>0.9671233687671235</v>
       </c>
       <c r="Q20">
-        <v>0.98479358877193</v>
+        <v>0.9671233687671233</v>
       </c>
       <c r="R20">
-        <v>0.9958903846052634</v>
+        <v>0.994398455</v>
       </c>
       <c r="S20">
-        <v>0.9958903846052634</v>
+        <v>0.994398455</v>
       </c>
       <c r="T20">
-        <v>0.9967907921929825</v>
+        <v>0.9913915601369864</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.060026633002089</v>
+        <v>0.9244845721052631</v>
       </c>
       <c r="D21">
-        <v>0.9998628949171429</v>
+        <v>0.9989846957894736</v>
       </c>
       <c r="E21">
-        <v>1.060026633002089</v>
+        <v>0.9244845721052631</v>
       </c>
       <c r="F21">
-        <v>0.9767934461358041</v>
+        <v>1.030155067894737</v>
       </c>
       <c r="G21">
-        <v>0.9835192342156879</v>
+        <v>1.021067498421053</v>
       </c>
       <c r="H21">
-        <v>1.038178046160238</v>
+        <v>0.9506081805263159</v>
       </c>
       <c r="I21">
-        <v>0.9340352275256499</v>
+        <v>1.087502249473684</v>
       </c>
       <c r="J21">
-        <v>0.9998628949171429</v>
+        <v>0.9989846957894736</v>
       </c>
       <c r="K21">
-        <v>0.9998628949171429</v>
+        <v>0.9989846957894736</v>
       </c>
       <c r="L21">
-        <v>0.9767934461358041</v>
+        <v>1.030155067894737</v>
       </c>
       <c r="M21">
-        <v>1.018410039568947</v>
+        <v>0.97731982</v>
       </c>
       <c r="N21">
-        <v>1.018410039568947</v>
+        <v>0.97731982</v>
       </c>
       <c r="O21">
-        <v>1.024999375099377</v>
+        <v>0.9684159401754386</v>
       </c>
       <c r="P21">
-        <v>1.012227658018345</v>
+        <v>0.9845414452631579</v>
       </c>
       <c r="Q21">
-        <v>1.012227658018345</v>
+        <v>0.9845414452631579</v>
       </c>
       <c r="R21">
-        <v>1.009136467243045</v>
+        <v>0.9881522578947368</v>
       </c>
       <c r="S21">
-        <v>1.009136467243045</v>
+        <v>0.9881522578947368</v>
       </c>
       <c r="T21">
-        <v>0.9987359136594351</v>
+        <v>1.002133710701754</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.022535188399311</v>
+        <v>0.904335912631579</v>
       </c>
       <c r="D22">
-        <v>0.9878789340584816</v>
+        <v>1.029180772105263</v>
       </c>
       <c r="E22">
-        <v>1.022535188399311</v>
+        <v>0.904335912631579</v>
       </c>
       <c r="F22">
-        <v>0.9978965161556439</v>
+        <v>1.020864081578947</v>
       </c>
       <c r="G22">
-        <v>0.9949759350777625</v>
+        <v>1.023288769473684</v>
       </c>
       <c r="H22">
-        <v>1.010288264478402</v>
+        <v>0.9496753215789474</v>
       </c>
       <c r="I22">
-        <v>0.9959196290067973</v>
+        <v>1.053399895789473</v>
       </c>
       <c r="J22">
-        <v>0.9878789340584816</v>
+        <v>1.029180772105263</v>
       </c>
       <c r="K22">
-        <v>0.9878789340584816</v>
+        <v>1.029180772105263</v>
       </c>
       <c r="L22">
-        <v>0.9978965161556439</v>
+        <v>1.020864081578947</v>
       </c>
       <c r="M22">
-        <v>1.010215852277477</v>
+        <v>0.9625999971052632</v>
       </c>
       <c r="N22">
-        <v>1.010215852277477</v>
+        <v>0.9625999971052632</v>
       </c>
       <c r="O22">
-        <v>1.010239989677786</v>
+        <v>0.9582917719298246</v>
       </c>
       <c r="P22">
-        <v>1.002770212871145</v>
+        <v>0.98479358877193</v>
       </c>
       <c r="Q22">
-        <v>1.002770212871145</v>
+        <v>0.98479358877193</v>
       </c>
       <c r="R22">
-        <v>0.9990473931679794</v>
+        <v>0.9958903846052634</v>
       </c>
       <c r="S22">
-        <v>0.9990473931679794</v>
+        <v>0.9958903846052634</v>
       </c>
       <c r="T22">
-        <v>1.001582411196067</v>
+        <v>0.9967907921929825</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.059173030296684</v>
+        <v>1.060026633002089</v>
       </c>
       <c r="D23">
-        <v>1.000686663871969</v>
+        <v>0.9998628949171429</v>
       </c>
       <c r="E23">
-        <v>1.059173030296684</v>
+        <v>1.060026633002089</v>
       </c>
       <c r="F23">
-        <v>0.9765893042771374</v>
+        <v>0.9767934461358041</v>
       </c>
       <c r="G23">
-        <v>0.9836147814619969</v>
+        <v>0.9835192342156879</v>
       </c>
       <c r="H23">
-        <v>1.038172310394908</v>
+        <v>1.038178046160238</v>
       </c>
       <c r="I23">
-        <v>0.9328916008252881</v>
+        <v>0.9340352275256499</v>
       </c>
       <c r="J23">
-        <v>1.000686663871969</v>
+        <v>0.9998628949171429</v>
       </c>
       <c r="K23">
-        <v>1.000686663871969</v>
+        <v>0.9998628949171429</v>
       </c>
       <c r="L23">
-        <v>0.9765893042771374</v>
+        <v>0.9767934461358041</v>
       </c>
       <c r="M23">
-        <v>1.017881167286911</v>
+        <v>1.018410039568947</v>
       </c>
       <c r="N23">
-        <v>1.017881167286911</v>
+        <v>1.018410039568947</v>
       </c>
       <c r="O23">
-        <v>1.024644881656243</v>
+        <v>1.024999375099377</v>
       </c>
       <c r="P23">
-        <v>1.012149666148597</v>
+        <v>1.012227658018345</v>
       </c>
       <c r="Q23">
-        <v>1.012149666148597</v>
+        <v>1.012227658018345</v>
       </c>
       <c r="R23">
-        <v>1.00928391557944</v>
+        <v>1.009136467243045</v>
       </c>
       <c r="S23">
-        <v>1.00928391557944</v>
+        <v>1.009136467243045</v>
       </c>
       <c r="T23">
-        <v>0.9985212818546639</v>
+        <v>0.9987359136594351</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.023103666218639</v>
+        <v>1.022535188399311</v>
       </c>
       <c r="D24">
-        <v>0.9876535683794688</v>
+        <v>0.9878789340584816</v>
       </c>
       <c r="E24">
-        <v>1.023103666218639</v>
+        <v>1.022535188399311</v>
       </c>
       <c r="F24">
-        <v>0.9978964642106938</v>
+        <v>0.9978965161556439</v>
       </c>
       <c r="G24">
-        <v>0.9949101964589003</v>
+        <v>0.9949759350777625</v>
       </c>
       <c r="H24">
-        <v>1.01027290884233</v>
+        <v>1.010288264478402</v>
       </c>
       <c r="I24">
-        <v>0.996455216451657</v>
+        <v>0.9959196290067973</v>
       </c>
       <c r="J24">
-        <v>0.9876535683794688</v>
+        <v>0.9878789340584816</v>
       </c>
       <c r="K24">
-        <v>0.9876535683794688</v>
+        <v>0.9878789340584816</v>
       </c>
       <c r="L24">
-        <v>0.9978964642106938</v>
+        <v>0.9978965161556439</v>
       </c>
       <c r="M24">
-        <v>1.010500065214667</v>
+        <v>1.010215852277477</v>
       </c>
       <c r="N24">
-        <v>1.010500065214667</v>
+        <v>1.010215852277477</v>
       </c>
       <c r="O24">
-        <v>1.010424346423888</v>
+        <v>1.010239989677786</v>
       </c>
       <c r="P24">
-        <v>1.002884566269601</v>
+        <v>1.002770212871145</v>
       </c>
       <c r="Q24">
-        <v>1.002884566269601</v>
+        <v>1.002770212871145</v>
       </c>
       <c r="R24">
-        <v>0.9990768167970676</v>
+        <v>0.9990473931679794</v>
       </c>
       <c r="S24">
-        <v>0.9990768167970676</v>
+        <v>0.9990473931679794</v>
       </c>
       <c r="T24">
-        <v>1.001715336760282</v>
+        <v>1.001582411196067</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.058322136234844</v>
+        <v>1.059173030296684</v>
       </c>
       <c r="D25">
-        <v>1.001508852240478</v>
+        <v>1.000686663871969</v>
       </c>
       <c r="E25">
-        <v>1.058322136234844</v>
+        <v>1.059173030296684</v>
       </c>
       <c r="F25">
-        <v>0.9763849583920547</v>
+        <v>0.9765893042771374</v>
       </c>
       <c r="G25">
-        <v>0.9837097139983068</v>
+        <v>0.9836147814619969</v>
       </c>
       <c r="H25">
-        <v>1.038167815367373</v>
+        <v>1.038172310394908</v>
       </c>
       <c r="I25">
-        <v>0.9317475675234723</v>
+        <v>0.9328916008252881</v>
       </c>
       <c r="J25">
-        <v>1.001508852240478</v>
+        <v>1.000686663871969</v>
       </c>
       <c r="K25">
-        <v>1.001508852240478</v>
+        <v>1.000686663871969</v>
       </c>
       <c r="L25">
-        <v>0.9763849583920547</v>
+        <v>0.9765893042771374</v>
       </c>
       <c r="M25">
-        <v>1.017353547313449</v>
+        <v>1.017881167286911</v>
       </c>
       <c r="N25">
-        <v>1.017353547313449</v>
+        <v>1.017881167286911</v>
       </c>
       <c r="O25">
-        <v>1.024291636664757</v>
+        <v>1.024644881656243</v>
       </c>
       <c r="P25">
-        <v>1.012071982289126</v>
+        <v>1.012149666148597</v>
       </c>
       <c r="Q25">
-        <v>1.012071982289126</v>
+        <v>1.012149666148597</v>
       </c>
       <c r="R25">
-        <v>1.009431199776964</v>
+        <v>1.00928391557944</v>
       </c>
       <c r="S25">
-        <v>1.009431199776964</v>
+        <v>1.00928391557944</v>
       </c>
       <c r="T25">
-        <v>0.9983068406260882</v>
+        <v>0.9985212818546639</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.023672582284647</v>
+        <v>1.023103666218639</v>
       </c>
       <c r="D26">
-        <v>0.9874285277921441</v>
+        <v>0.9876535683794688</v>
       </c>
       <c r="E26">
-        <v>1.023672582284647</v>
+        <v>1.023103666218639</v>
       </c>
       <c r="F26">
-        <v>0.9978960970860877</v>
+        <v>0.9978964642106938</v>
       </c>
       <c r="G26">
-        <v>0.994844332912863</v>
+        <v>0.9949101964589003</v>
       </c>
       <c r="H26">
-        <v>1.010257851417492</v>
+        <v>1.01027290884233</v>
       </c>
       <c r="I26">
-        <v>0.9969900026134219</v>
+        <v>0.996455216451657</v>
       </c>
       <c r="J26">
-        <v>0.9874285277921441</v>
+        <v>0.9876535683794688</v>
       </c>
       <c r="K26">
-        <v>0.9874285277921441</v>
+        <v>0.9876535683794688</v>
       </c>
       <c r="L26">
-        <v>0.9978960970860877</v>
+        <v>0.9978964642106938</v>
       </c>
       <c r="M26">
-        <v>1.010784339685368</v>
+        <v>1.010500065214667</v>
       </c>
       <c r="N26">
-        <v>1.010784339685368</v>
+        <v>1.010500065214667</v>
       </c>
       <c r="O26">
-        <v>1.010608843596076</v>
+        <v>1.010424346423888</v>
       </c>
       <c r="P26">
-        <v>1.002999069054293</v>
+        <v>1.002884566269601</v>
       </c>
       <c r="Q26">
-        <v>1.002999069054293</v>
+        <v>1.002884566269601</v>
       </c>
       <c r="R26">
-        <v>0.9991064337387557</v>
+        <v>0.9990768167970676</v>
       </c>
       <c r="S26">
-        <v>0.9991064337387557</v>
+        <v>0.9990768167970676</v>
       </c>
       <c r="T26">
-        <v>1.001848232351109</v>
+        <v>1.001715336760282</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9664732334481984</v>
+        <v>1.058322136234844</v>
       </c>
       <c r="D27">
-        <v>1.009641967086794</v>
+        <v>1.001508852240478</v>
       </c>
       <c r="E27">
-        <v>0.9664732334481984</v>
+        <v>1.058322136234844</v>
       </c>
       <c r="F27">
-        <v>1.007580147392773</v>
+        <v>0.9763849583920547</v>
       </c>
       <c r="G27">
-        <v>1.00818125248673</v>
+        <v>0.9837097139983068</v>
       </c>
       <c r="H27">
-        <v>0.9823293362665839</v>
+        <v>1.038167815367373</v>
       </c>
       <c r="I27">
-        <v>1.019299590383725</v>
+        <v>0.9317475675234723</v>
       </c>
       <c r="J27">
-        <v>1.009641967086794</v>
+        <v>1.001508852240478</v>
       </c>
       <c r="K27">
-        <v>1.009641967086794</v>
+        <v>1.001508852240478</v>
       </c>
       <c r="L27">
-        <v>1.007580147392773</v>
+        <v>0.9763849583920547</v>
       </c>
       <c r="M27">
-        <v>0.9870266904204859</v>
+        <v>1.017353547313449</v>
       </c>
       <c r="N27">
-        <v>0.9870266904204859</v>
+        <v>1.017353547313449</v>
       </c>
       <c r="O27">
-        <v>0.9854609057025185</v>
+        <v>1.024291636664757</v>
       </c>
       <c r="P27">
-        <v>0.9945651159759218</v>
+        <v>1.012071982289126</v>
       </c>
       <c r="Q27">
-        <v>0.9945651159759216</v>
+        <v>1.012071982289126</v>
       </c>
       <c r="R27">
-        <v>0.9983343287536396</v>
+        <v>1.009431199776964</v>
       </c>
       <c r="S27">
-        <v>0.9983343287536396</v>
+        <v>1.009431199776964</v>
       </c>
       <c r="T27">
-        <v>0.998917587844134</v>
+        <v>0.9983068406260882</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.004366018022624</v>
+        <v>1.023672582284647</v>
       </c>
       <c r="D28">
-        <v>0.9998427642715012</v>
+        <v>0.9874285277921441</v>
       </c>
       <c r="E28">
-        <v>1.004366018022624</v>
+        <v>1.023672582284647</v>
       </c>
       <c r="F28">
-        <v>0.9982913481131679</v>
+        <v>0.9978960970860877</v>
       </c>
       <c r="G28">
-        <v>0.9987436622534801</v>
+        <v>0.994844332912863</v>
       </c>
       <c r="H28">
-        <v>1.003042781811578</v>
+        <v>1.010257851417492</v>
       </c>
       <c r="I28">
-        <v>0.9946435605007281</v>
+        <v>0.9969900026134219</v>
       </c>
       <c r="J28">
-        <v>0.9998427642715012</v>
+        <v>0.9874285277921441</v>
       </c>
       <c r="K28">
-        <v>0.9998427642715012</v>
+        <v>0.9874285277921441</v>
       </c>
       <c r="L28">
-        <v>0.9982913481131679</v>
+        <v>0.9978960970860877</v>
       </c>
       <c r="M28">
-        <v>1.001328683067896</v>
+        <v>1.010784339685368</v>
       </c>
       <c r="N28">
-        <v>1.001328683067896</v>
+        <v>1.010784339685368</v>
       </c>
       <c r="O28">
-        <v>1.00190004931579</v>
+        <v>1.010608843596076</v>
       </c>
       <c r="P28">
-        <v>1.000833376802431</v>
+        <v>1.002999069054293</v>
       </c>
       <c r="Q28">
-        <v>1.000833376802431</v>
+        <v>1.002999069054293</v>
       </c>
       <c r="R28">
-        <v>1.000585723669698</v>
+        <v>0.9991064337387557</v>
       </c>
       <c r="S28">
-        <v>1.000585723669698</v>
+        <v>0.9991064337387557</v>
       </c>
       <c r="T28">
-        <v>0.9998216891621797</v>
+        <v>1.001848232351109</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9664732334481984</v>
+      </c>
+      <c r="D29">
+        <v>1.009641967086794</v>
+      </c>
+      <c r="E29">
+        <v>0.9664732334481984</v>
+      </c>
+      <c r="F29">
+        <v>1.007580147392773</v>
+      </c>
+      <c r="G29">
+        <v>1.00818125248673</v>
+      </c>
+      <c r="H29">
+        <v>0.9823293362665839</v>
+      </c>
+      <c r="I29">
+        <v>1.019299590383725</v>
+      </c>
+      <c r="J29">
+        <v>1.009641967086794</v>
+      </c>
+      <c r="K29">
+        <v>1.009641967086794</v>
+      </c>
+      <c r="L29">
+        <v>1.007580147392773</v>
+      </c>
+      <c r="M29">
+        <v>0.9870266904204859</v>
+      </c>
+      <c r="N29">
+        <v>0.9870266904204859</v>
+      </c>
+      <c r="O29">
+        <v>0.9854609057025185</v>
+      </c>
+      <c r="P29">
+        <v>0.9945651159759218</v>
+      </c>
+      <c r="Q29">
+        <v>0.9945651159759216</v>
+      </c>
+      <c r="R29">
+        <v>0.9983343287536396</v>
+      </c>
+      <c r="S29">
+        <v>0.9983343287536396</v>
+      </c>
+      <c r="T29">
+        <v>0.998917587844134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.004366018022624</v>
+      </c>
+      <c r="D30">
+        <v>0.9998427642715012</v>
+      </c>
+      <c r="E30">
+        <v>1.004366018022624</v>
+      </c>
+      <c r="F30">
+        <v>0.9982913481131679</v>
+      </c>
+      <c r="G30">
+        <v>0.9987436622534801</v>
+      </c>
+      <c r="H30">
+        <v>1.003042781811578</v>
+      </c>
+      <c r="I30">
+        <v>0.9946435605007281</v>
+      </c>
+      <c r="J30">
+        <v>0.9998427642715012</v>
+      </c>
+      <c r="K30">
+        <v>0.9998427642715012</v>
+      </c>
+      <c r="L30">
+        <v>0.9982913481131679</v>
+      </c>
+      <c r="M30">
+        <v>1.001328683067896</v>
+      </c>
+      <c r="N30">
+        <v>1.001328683067896</v>
+      </c>
+      <c r="O30">
+        <v>1.00190004931579</v>
+      </c>
+      <c r="P30">
+        <v>1.000833376802431</v>
+      </c>
+      <c r="Q30">
+        <v>1.000833376802431</v>
+      </c>
+      <c r="R30">
+        <v>1.000585723669698</v>
+      </c>
+      <c r="S30">
+        <v>1.000585723669698</v>
+      </c>
+      <c r="T30">
+        <v>0.9998216891621797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.10398746778623</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9757702402422944</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.10398746778623</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9733593318942846</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9740622323429464</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.056778150388713</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.93023692249816</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9757702402422944</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9757702402422944</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9733593318942846</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.038673399840257</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.038673399840257</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.044708316689743</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.01770567997427</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.01770567997427</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.007221820041276</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.007221820041276</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.002365724192105</v>
       </c>
     </row>
